--- a/precos.xlsx
+++ b/precos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sena_\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559F512F-BEA2-4739-89C5-2440DD93589E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB6D9774-2E29-42D0-8A24-B27E32C85405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{819F4168-15DA-4D5F-AAAD-78632F943A49}"/>
   </bookViews>

--- a/precos.xlsx
+++ b/precos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\MEUS PROJETOS\MEUS PROJETOS\planilha atualizada 12.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F64DC499-4B7B-4C9F-9B21-4961240FCEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044B53E6-E41A-4174-9791-7D6DF080D250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160" xr2:uid="{E6FB4E53-5535-41C7-ADC0-852DED750861}"/>
+    <workbookView xWindow="4410" yWindow="300" windowWidth="14160" windowHeight="10620" xr2:uid="{E6FB4E53-5535-41C7-ADC0-852DED750861}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -2842,9 +2842,6 @@
     <t>FRETE</t>
   </si>
   <si>
-    <t>PR.CUSTO+FRETE</t>
-  </si>
-  <si>
     <t>AREA</t>
   </si>
   <si>
@@ -3206,6 +3203,9 @@
   </si>
   <si>
     <t>https://minhacasaprefabricada.com.br/produto/modelo-tiny-house-th05-de-900m%c2%b2/</t>
+  </si>
+  <si>
+    <t>PRECO_CUSTOsem</t>
   </si>
 </sst>
 </file>
@@ -3348,9 +3348,9 @@
       <calculatedColumnFormula>IFERROR(MID(B2,FIND("(",B2)+1,4),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{A93BCDCE-C786-4048-9C20-1FC2B6A68EF6}" name="PESO UND" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{03393C86-3E36-40D3-B049-761094809D6B}" name="PR.CUSTO+FRETE" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{75ABE20E-2154-4B08-A127-B53A06EB2244}" name="PRECO_CUSTO" dataDxfId="3">
-      <calculatedColumnFormula>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{03393C86-3E36-40D3-B049-761094809D6B}" name="PRECO_CUSTO" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{75ABE20E-2154-4B08-A127-B53A06EB2244}" name="PRECO_CUSTOsem" dataDxfId="3">
+      <calculatedColumnFormula>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{265C7721-F3DA-414C-AE85-FBCD5E4AB6C3}" name="A VISTA" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{90347397-3271-4279-9CD0-65FA73A21DF2}" name="FRETE" dataDxfId="1">
@@ -3661,9 +3661,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50ECAAF5-9F6D-48C9-9C9A-FA56D4217B3E}">
   <dimension ref="A1:J954"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3687,25 +3687,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>928</v>
+        <v>958</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>959</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>960</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>927</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3726,7 +3726,7 @@
         <v>26853.68</v>
       </c>
       <c r="F2" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>21977.370940000001</v>
       </c>
       <c r="G2" s="1">
@@ -3737,7 +3737,7 @@
         <v>4876.3090599999996</v>
       </c>
       <c r="I2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J2" t="str" cm="1">
         <f t="array" aca="1" ref="J2" ca="1">IFERROR(ARRANCAR(B2,FIND("(",B2)+1,FIND(")",B2)-FIND("(",B2)-1),"")</f>
@@ -3762,7 +3762,7 @@
         <v>1473.33</v>
       </c>
       <c r="F3" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1435.2262499999999</v>
       </c>
       <c r="G3" s="1">
@@ -3791,7 +3791,7 @@
         <v>7852.55</v>
       </c>
       <c r="F4" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7380.7408999999998</v>
       </c>
       <c r="G4" s="1">
@@ -3820,7 +3820,7 @@
         <v>7564.35</v>
       </c>
       <c r="F5" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7144.4749000000002</v>
       </c>
       <c r="G5" s="1">
@@ -3849,7 +3849,7 @@
         <v>31640.16</v>
       </c>
       <c r="F6" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>25369.82948</v>
       </c>
       <c r="G6" s="1">
@@ -3860,7 +3860,7 @@
         <v>6270.3305200000004</v>
       </c>
       <c r="I6" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3881,7 +3881,7 @@
         <v>1737.54</v>
       </c>
       <c r="F7" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1696.896</v>
       </c>
       <c r="G7" s="1">
@@ -3910,7 +3910,7 @@
         <v>8072</v>
       </c>
       <c r="F8" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7634.9641000000001</v>
       </c>
       <c r="G8" s="1">
@@ -3939,7 +3939,7 @@
         <v>7799.19</v>
       </c>
       <c r="F9" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7362.1540999999997</v>
       </c>
       <c r="G9" s="1">
@@ -3968,7 +3968,7 @@
         <v>1145.93</v>
       </c>
       <c r="F10" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1116.29375</v>
       </c>
       <c r="G10" s="1">
@@ -3997,7 +3997,7 @@
         <v>5622.65</v>
       </c>
       <c r="F11" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5319.8521999999994</v>
       </c>
       <c r="G11" s="1">
@@ -4026,7 +4026,7 @@
         <v>18654.150000000001</v>
       </c>
       <c r="F12" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>14993.672330000001</v>
       </c>
       <c r="G12" s="1">
@@ -4037,7 +4037,7 @@
         <v>3660.4776700000002</v>
       </c>
       <c r="I12" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -4058,7 +4058,7 @@
         <v>5433.54</v>
       </c>
       <c r="F13" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5130.7421999999997</v>
       </c>
       <c r="G13" s="1">
@@ -4087,7 +4087,7 @@
         <v>72715.520000000004</v>
       </c>
       <c r="F14" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>59128.117900000005</v>
       </c>
       <c r="G14" s="1">
@@ -4098,7 +4098,7 @@
         <v>13587.402100000001</v>
       </c>
       <c r="I14" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -4119,7 +4119,7 @@
         <v>4256.3</v>
       </c>
       <c r="F15" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4146.2224999999999</v>
       </c>
       <c r="G15" s="1">
@@ -4148,7 +4148,7 @@
         <v>21257.57</v>
       </c>
       <c r="F16" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>20118.183199999999</v>
       </c>
       <c r="G16" s="1">
@@ -4177,7 +4177,7 @@
         <v>20547.490000000002</v>
       </c>
       <c r="F17" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>19408.103200000001</v>
       </c>
       <c r="G17" s="1">
@@ -4193,7 +4193,7 @@
         <v>806</v>
       </c>
       <c r="B18" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -4206,7 +4206,7 @@
         <v>28849.57</v>
       </c>
       <c r="F18" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>23695.41404</v>
       </c>
       <c r="G18" s="1">
@@ -4217,7 +4217,7 @@
         <v>5154.1559600000001</v>
       </c>
       <c r="I18" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -4225,7 +4225,7 @@
         <v>809</v>
       </c>
       <c r="B19" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -4238,7 +4238,7 @@
         <v>1637.04</v>
       </c>
       <c r="F19" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1594.7024999999999</v>
       </c>
       <c r="G19" s="1">
@@ -4267,7 +4267,7 @@
         <v>7872.93</v>
       </c>
       <c r="F20" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7459.7160000000003</v>
       </c>
       <c r="G20" s="1">
@@ -4296,7 +4296,7 @@
         <v>7629.44</v>
       </c>
       <c r="F21" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7202.6779999999999</v>
       </c>
       <c r="G21" s="1">
@@ -4312,7 +4312,7 @@
         <v>824</v>
       </c>
       <c r="B22" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -4325,7 +4325,7 @@
         <v>21822.35</v>
       </c>
       <c r="F22" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>17633.500329999999</v>
       </c>
       <c r="G22" s="1">
@@ -4336,7 +4336,7 @@
         <v>4188.8496700000005</v>
       </c>
       <c r="I22" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -4357,7 +4357,7 @@
         <v>1473.33</v>
       </c>
       <c r="F23" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1435.2262499999999</v>
       </c>
       <c r="G23" s="1">
@@ -4386,7 +4386,7 @@
         <v>6867.93</v>
       </c>
       <c r="F24" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6496.2632000000003</v>
       </c>
       <c r="G24" s="1">
@@ -4415,7 +4415,7 @@
         <v>6635.98</v>
       </c>
       <c r="F25" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6264.3131999999996</v>
       </c>
       <c r="G25" s="1">
@@ -4444,7 +4444,7 @@
         <v>29325.1</v>
       </c>
       <c r="F26" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>24333.779709999999</v>
       </c>
       <c r="G26" s="1">
@@ -4455,7 +4455,7 @@
         <v>4991.3202899999997</v>
       </c>
       <c r="I26" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -4476,7 +4476,7 @@
         <v>1473.33</v>
       </c>
       <c r="F27" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1435.2262499999999</v>
       </c>
       <c r="G27" s="1">
@@ -4505,7 +4505,7 @@
         <v>11364.64</v>
       </c>
       <c r="F28" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>10752.044599999999</v>
       </c>
       <c r="G28" s="1">
@@ -4534,7 +4534,7 @@
         <v>10982.44</v>
       </c>
       <c r="F29" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>10369.8446</v>
       </c>
       <c r="G29" s="1">
@@ -4563,7 +4563,7 @@
         <v>26806.720000000001</v>
       </c>
       <c r="F30" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>21752.616020000001</v>
       </c>
       <c r="G30" s="1">
@@ -4592,7 +4592,7 @@
         <v>5267.19</v>
       </c>
       <c r="F31" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4419.6496999999999</v>
       </c>
       <c r="G31" s="1">
@@ -4621,7 +4621,7 @@
         <v>1800.74</v>
       </c>
       <c r="F32" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1754.16875</v>
       </c>
       <c r="G32" s="1">
@@ -4650,7 +4650,7 @@
         <v>9531.66</v>
       </c>
       <c r="F33" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>9022.2551999999996</v>
       </c>
       <c r="G33" s="1">
@@ -4679,7 +4679,7 @@
         <v>9214.02</v>
       </c>
       <c r="F34" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>8704.6152000000002</v>
       </c>
       <c r="G34" s="1">
@@ -4708,7 +4708,7 @@
         <v>61717.59</v>
       </c>
       <c r="F35" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>49938.236239999998</v>
       </c>
       <c r="G35" s="1">
@@ -4719,7 +4719,7 @@
         <v>11779.353760000002</v>
       </c>
       <c r="I35" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -4740,7 +4740,7 @@
         <v>2780.07</v>
       </c>
       <c r="F36" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2715.0396000000001</v>
       </c>
       <c r="G36" s="1">
@@ -4769,7 +4769,7 @@
         <v>11596.41</v>
       </c>
       <c r="F37" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>11596.41</v>
       </c>
       <c r="G37" s="1">
@@ -4798,7 +4798,7 @@
         <v>15210.49</v>
       </c>
       <c r="F38" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>14394.6746</v>
       </c>
       <c r="G38" s="1">
@@ -4827,7 +4827,7 @@
         <v>14702.06</v>
       </c>
       <c r="F39" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>13886.2446</v>
       </c>
       <c r="G39" s="1">
@@ -4856,7 +4856,7 @@
         <v>32940.61</v>
       </c>
       <c r="F40" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>26051.35039</v>
       </c>
       <c r="G40" s="1">
@@ -4867,7 +4867,7 @@
         <v>6889.2596100000001</v>
       </c>
       <c r="I40" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -4888,7 +4888,7 @@
         <v>1473.33</v>
       </c>
       <c r="F41" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1435.2262499999999</v>
       </c>
       <c r="G41" s="1">
@@ -4918,7 +4918,7 @@
         <v>9854.25</v>
       </c>
       <c r="F42" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>9331.0714000000007</v>
       </c>
       <c r="G42" s="1">
@@ -4948,7 +4948,7 @@
         <v>9528.06</v>
       </c>
       <c r="F43" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>9004.8814000000002</v>
       </c>
       <c r="G43" s="1">
@@ -4978,7 +4978,7 @@
         <v>53970.3</v>
       </c>
       <c r="F44" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>43727.921679999999</v>
       </c>
       <c r="G44" s="1">
@@ -5008,7 +5008,7 @@
         <v>7678.75</v>
       </c>
       <c r="F45" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6073.3119999999999</v>
       </c>
       <c r="G45" s="1">
@@ -5038,7 +5038,7 @@
         <v>1851.37</v>
       </c>
       <c r="F46" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1790.404</v>
       </c>
       <c r="G46" s="1">
@@ -5068,7 +5068,7 @@
         <v>6715.31</v>
       </c>
       <c r="F47" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6309.3216000000002</v>
       </c>
       <c r="G47" s="1">
@@ -5098,7 +5098,7 @@
         <v>6461.63</v>
       </c>
       <c r="F48" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6055.6415999999999</v>
       </c>
       <c r="G48" s="1">
@@ -5128,7 +5128,7 @@
         <v>4509.55</v>
       </c>
       <c r="F49" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3662.5742</v>
       </c>
       <c r="G49" s="1">
@@ -5145,7 +5145,7 @@
         <v>573</v>
       </c>
       <c r="B50" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="0"/>
@@ -5158,7 +5158,7 @@
         <v>5402.4569300000003</v>
       </c>
       <c r="F50" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>0</v>
       </c>
       <c r="G50" s="1">
@@ -5169,7 +5169,7 @@
         <v>5402.4569300000003</v>
       </c>
       <c r="I50" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -5190,7 +5190,7 @@
         <v>14129.38</v>
       </c>
       <c r="F51" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>11060.4193</v>
       </c>
       <c r="G51" s="1">
@@ -5219,7 +5219,7 @@
         <v>491.11</v>
       </c>
       <c r="F52" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>478.40875</v>
       </c>
       <c r="G52" s="1">
@@ -5248,7 +5248,7 @@
         <v>1131.47</v>
       </c>
       <c r="F53" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1062.6010000000001</v>
       </c>
       <c r="G53" s="1">
@@ -5277,7 +5277,7 @@
         <v>1088.6300000000001</v>
       </c>
       <c r="F54" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1019.7610000000001</v>
       </c>
       <c r="G54" s="1">
@@ -5306,7 +5306,7 @@
         <v>2032.33</v>
       </c>
       <c r="F55" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1604.4389999999999</v>
       </c>
       <c r="G55" s="1">
@@ -5335,7 +5335,7 @@
         <v>41752.910000000003</v>
       </c>
       <c r="F56" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>32963.893380000001</v>
       </c>
       <c r="G56" s="1">
@@ -5346,7 +5346,7 @@
         <v>8789.0166200000003</v>
       </c>
       <c r="I56" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -5367,7 +5367,7 @@
         <v>7726</v>
       </c>
       <c r="F57" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6138.0614999999998</v>
       </c>
       <c r="G57" s="1">
@@ -5396,7 +5396,7 @@
         <v>2455.56</v>
       </c>
       <c r="F58" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2392.05375</v>
       </c>
       <c r="G58" s="1">
@@ -5425,7 +5425,7 @@
         <v>8707.84</v>
       </c>
       <c r="F59" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>8187.0322999999999</v>
       </c>
       <c r="G59" s="1">
@@ -5454,7 +5454,7 @@
         <v>8426.48</v>
       </c>
       <c r="F60" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7905.6722999999993</v>
       </c>
       <c r="G60" s="1">
@@ -5470,7 +5470,7 @@
         <v>856</v>
       </c>
       <c r="B61" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="0"/>
@@ -5483,7 +5483,7 @@
         <v>4542.68</v>
       </c>
       <c r="F61" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3978.1235500000003</v>
       </c>
       <c r="G61" s="1">
@@ -5494,7 +5494,7 @@
         <v>564.55645000000004</v>
       </c>
       <c r="I61" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -5502,7 +5502,7 @@
         <v>858</v>
       </c>
       <c r="B62" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="0"/>
@@ -5515,7 +5515,7 @@
         <v>5096.88</v>
       </c>
       <c r="F62" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4471.4139999999998</v>
       </c>
       <c r="G62" s="1">
@@ -5526,7 +5526,7 @@
         <v>625.46600000000001</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -5534,7 +5534,7 @@
         <v>859</v>
       </c>
       <c r="B63" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="0"/>
@@ -5547,7 +5547,7 @@
         <v>6631.41</v>
       </c>
       <c r="F63" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5829.7635499999997</v>
       </c>
       <c r="G63" s="1">
@@ -5558,7 +5558,7 @@
         <v>801.64644999999996</v>
       </c>
       <c r="I63" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -5579,7 +5579,7 @@
         <v>15230.31</v>
       </c>
       <c r="F64" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>12177.606899999999</v>
       </c>
       <c r="G64" s="1">
@@ -5608,7 +5608,7 @@
         <v>7732.49</v>
       </c>
       <c r="F65" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6059.8765000000003</v>
       </c>
       <c r="G65" s="1">
@@ -5637,7 +5637,7 @@
         <v>2128.15</v>
       </c>
       <c r="F66" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2073.1112499999999</v>
       </c>
       <c r="G66" s="1">
@@ -5666,7 +5666,7 @@
         <v>6061.5</v>
       </c>
       <c r="F67" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5695.7039999999997</v>
       </c>
       <c r="G67" s="1">
@@ -5695,7 +5695,7 @@
         <v>3919.06</v>
       </c>
       <c r="F68" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3671.1316000000002</v>
       </c>
       <c r="G68" s="1">
@@ -5724,7 +5724,7 @@
         <v>8261.19</v>
       </c>
       <c r="F69" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6541.4972000000007</v>
       </c>
       <c r="G69" s="1">
@@ -5735,7 +5735,7 @@
         <v>1719.6928</v>
       </c>
       <c r="I69" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -5756,7 +5756,7 @@
         <v>2155.77</v>
       </c>
       <c r="F70" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1698.5250000000001</v>
       </c>
       <c r="G70" s="1">
@@ -5785,7 +5785,7 @@
         <v>654.82000000000005</v>
       </c>
       <c r="F71" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>637.8850000000001</v>
       </c>
       <c r="G71" s="1">
@@ -5814,7 +5814,7 @@
         <v>1100.32</v>
       </c>
       <c r="F72" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1037.4347</v>
       </c>
       <c r="G72" s="1">
@@ -5843,7 +5843,7 @@
         <v>1065.74</v>
       </c>
       <c r="F73" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1002.8547</v>
       </c>
       <c r="G73" s="1">
@@ -5859,7 +5859,7 @@
         <v>448</v>
       </c>
       <c r="B74" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C74" t="str">
         <f t="shared" si="1"/>
@@ -5872,7 +5872,7 @@
         <v>7952.79</v>
       </c>
       <c r="F74" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6321.3962899999997</v>
       </c>
       <c r="G74" s="1">
@@ -5883,7 +5883,7 @@
         <v>1631.3937100000001</v>
       </c>
       <c r="I74" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -5904,7 +5904,7 @@
         <v>1878.04</v>
       </c>
       <c r="F75" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1486.8415</v>
       </c>
       <c r="G75" s="1">
@@ -5934,7 +5934,7 @@
         <v>491.11</v>
       </c>
       <c r="F76" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>478.40875</v>
       </c>
       <c r="G76" s="1">
@@ -5964,7 +5964,7 @@
         <v>1082.81</v>
       </c>
       <c r="F77" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1021.0536999999999</v>
       </c>
       <c r="G77" s="1">
@@ -5994,7 +5994,7 @@
         <v>1048.23</v>
       </c>
       <c r="F78" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>986.47370000000001</v>
       </c>
       <c r="G78" s="1">
@@ -6024,7 +6024,7 @@
         <v>1102.0899999999999</v>
       </c>
       <c r="F79" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>869.40309999999988</v>
       </c>
       <c r="G79" s="1">
@@ -6054,7 +6054,7 @@
         <v>4165.8500000000004</v>
       </c>
       <c r="F80" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3237.3604000000005</v>
       </c>
       <c r="G80" s="1">
@@ -6084,7 +6084,7 @@
         <v>13086.29</v>
       </c>
       <c r="F81" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>10596.969190000002</v>
       </c>
       <c r="G81" s="1">
@@ -6114,7 +6114,7 @@
         <v>5171.63</v>
       </c>
       <c r="F82" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4133.6838500000003</v>
       </c>
       <c r="G82" s="1">
@@ -6144,7 +6144,7 @@
         <v>2985.22</v>
       </c>
       <c r="F83" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2378.9469999999997</v>
       </c>
       <c r="G83" s="1">
@@ -6174,7 +6174,7 @@
         <v>1216.28</v>
       </c>
       <c r="F84" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1187.8291999999999</v>
       </c>
       <c r="G84" s="1">
@@ -6204,7 +6204,7 @@
         <v>4030.42</v>
       </c>
       <c r="F85" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3789.3785000000003</v>
       </c>
       <c r="G85" s="1">
@@ -6234,7 +6234,7 @@
         <v>3892.72</v>
       </c>
       <c r="F86" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3651.6785</v>
       </c>
       <c r="G86" s="1">
@@ -6264,7 +6264,7 @@
         <v>1964.45</v>
       </c>
       <c r="F87" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1913.645</v>
       </c>
       <c r="G87" s="1">
@@ -6294,7 +6294,7 @@
         <v>1615.75</v>
       </c>
       <c r="F88" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1615.75</v>
       </c>
       <c r="G88" s="1">
@@ -6324,7 +6324,7 @@
         <v>2071.2399999999998</v>
       </c>
       <c r="F89" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1961.2753999999998</v>
       </c>
       <c r="G89" s="1">
@@ -6354,7 +6354,7 @@
         <v>2002.08</v>
       </c>
       <c r="F90" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1892.1153999999999</v>
       </c>
       <c r="G90" s="1">
@@ -6371,7 +6371,7 @@
         <v>527</v>
       </c>
       <c r="B91" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C91" t="str">
         <f t="shared" si="1"/>
@@ -6384,7 +6384,7 @@
         <v>47373.120000000003</v>
       </c>
       <c r="F91" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>38714.841580000008</v>
       </c>
       <c r="G91" s="1">
@@ -6410,7 +6410,7 @@
         <v>10044.709999999999</v>
       </c>
       <c r="F92" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7849.9339999999993</v>
       </c>
       <c r="G92" s="1">
@@ -6436,7 +6436,7 @@
         <v>3274.08</v>
       </c>
       <c r="F93" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3189.4049999999997</v>
       </c>
       <c r="G93" s="1">
@@ -6462,7 +6462,7 @@
         <v>9267.73</v>
       </c>
       <c r="F94" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>8706.8428000000004</v>
       </c>
       <c r="G94" s="1">
@@ -6488,7 +6488,7 @@
         <v>8917.51</v>
       </c>
       <c r="F95" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>8356.622800000001</v>
       </c>
       <c r="G95" s="1">
@@ -6514,7 +6514,7 @@
         <v>8442.24</v>
       </c>
       <c r="F96" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6600.8409999999994</v>
       </c>
       <c r="G96" s="1">
@@ -6531,7 +6531,7 @@
         <v>420</v>
       </c>
       <c r="B97" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C97" t="str">
         <f t="shared" si="1"/>
@@ -6544,7 +6544,7 @@
         <v>95884.91</v>
       </c>
       <c r="F97" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>75571.94200000001</v>
       </c>
       <c r="G97" s="1">
@@ -6561,7 +6561,7 @@
         <v>424</v>
       </c>
       <c r="B98" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C98" t="str">
         <f t="shared" si="1"/>
@@ -6574,7 +6574,7 @@
         <v>21874.89</v>
       </c>
       <c r="F98" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>17116.154999999999</v>
       </c>
       <c r="G98" s="1">
@@ -6604,7 +6604,7 @@
         <v>6711.85</v>
       </c>
       <c r="F99" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6538.2662500000006</v>
       </c>
       <c r="G99" s="1">
@@ -6634,7 +6634,7 @@
         <v>15367.33</v>
       </c>
       <c r="F100" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>14438.388800000001</v>
       </c>
       <c r="G100" s="1">
@@ -6664,7 +6664,7 @@
         <v>14786.85</v>
       </c>
       <c r="F101" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>13857.908800000001</v>
       </c>
       <c r="G101" s="1">
@@ -6694,7 +6694,7 @@
         <v>60794.15</v>
       </c>
       <c r="F102" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>49284.717559999997</v>
       </c>
       <c r="G102" s="1">
@@ -6724,7 +6724,7 @@
         <v>16737.990000000002</v>
       </c>
       <c r="F103" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>13176.672400000001</v>
       </c>
       <c r="G103" s="1">
@@ -6754,7 +6754,7 @@
         <v>3408.38</v>
       </c>
       <c r="F104" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2801.6554000000001</v>
       </c>
       <c r="G104" s="1">
@@ -6784,7 +6784,7 @@
         <v>12158.8</v>
       </c>
       <c r="F105" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>9655.2425000000003</v>
       </c>
       <c r="G105" s="1">
@@ -6814,7 +6814,7 @@
         <v>3110.37</v>
       </c>
       <c r="F106" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3029.92875</v>
       </c>
       <c r="G106" s="1">
@@ -6844,7 +6844,7 @@
         <v>12888.43</v>
       </c>
       <c r="F107" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>12107.162</v>
       </c>
       <c r="G107" s="1">
@@ -6874,7 +6874,7 @@
         <v>12401.12</v>
       </c>
       <c r="F108" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>11619.852000000001</v>
       </c>
       <c r="G108" s="1">
@@ -6904,7 +6904,7 @@
         <v>64942.2</v>
       </c>
       <c r="F109" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>52123.398519999995</v>
       </c>
       <c r="G109" s="1">
@@ -6934,7 +6934,7 @@
         <v>14080.68</v>
       </c>
       <c r="F110" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>11009.235500000001</v>
       </c>
       <c r="G110" s="1">
@@ -6964,7 +6964,7 @@
         <v>4256.3</v>
       </c>
       <c r="F111" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4146.2224999999999</v>
       </c>
       <c r="G111" s="1">
@@ -6994,7 +6994,7 @@
         <v>8878.32</v>
       </c>
       <c r="F112" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>8341.5933999999997</v>
       </c>
       <c r="G112" s="1">
@@ -7024,7 +7024,7 @@
         <v>8542.94</v>
       </c>
       <c r="F113" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>8006.2134000000005</v>
       </c>
       <c r="G113" s="1">
@@ -7054,7 +7054,7 @@
         <v>7362.19</v>
       </c>
       <c r="F114" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5777.6384999999991</v>
       </c>
       <c r="G114" s="1">
@@ -7084,7 +7084,7 @@
         <v>46878.63</v>
       </c>
       <c r="F115" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>37064.289449999997</v>
       </c>
       <c r="G115" s="1">
@@ -7114,7 +7114,7 @@
         <v>9242.39</v>
       </c>
       <c r="F116" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7238.4149999999991</v>
       </c>
       <c r="G116" s="1">
@@ -7144,7 +7144,7 @@
         <v>3110.37</v>
       </c>
       <c r="F117" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3029.92875</v>
       </c>
       <c r="G117" s="1">
@@ -7174,7 +7174,7 @@
         <v>11367.55</v>
       </c>
       <c r="F118" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>10679.311599999999</v>
       </c>
       <c r="G118" s="1">
@@ -7204,7 +7204,7 @@
         <v>10937.92</v>
       </c>
       <c r="F119" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>10249.6816</v>
       </c>
       <c r="G119" s="1">
@@ -7234,7 +7234,7 @@
         <v>12717.59</v>
       </c>
       <c r="F120" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>9956.5753399999994</v>
       </c>
       <c r="G120" s="1">
@@ -7245,7 +7245,7 @@
         <v>2761.0146599999998</v>
       </c>
       <c r="I120" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -7266,7 +7266,7 @@
         <v>1003.5</v>
       </c>
       <c r="F121" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>868.92319999999995</v>
       </c>
       <c r="G121" s="1">
@@ -7296,7 +7296,7 @@
         <v>3603.95</v>
       </c>
       <c r="F122" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2830.0204999999996</v>
       </c>
       <c r="G122" s="1">
@@ -7326,7 +7326,7 @@
         <v>1216.28</v>
       </c>
       <c r="F123" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1187.8291999999999</v>
       </c>
       <c r="G123" s="1">
@@ -7356,7 +7356,7 @@
         <v>4639.92</v>
       </c>
       <c r="F124" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4361.6215000000002</v>
       </c>
       <c r="G124" s="1">
@@ -7386,7 +7386,7 @@
         <v>4480.8</v>
       </c>
       <c r="F125" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4202.5015000000003</v>
       </c>
       <c r="G125" s="1">
@@ -7416,7 +7416,7 @@
         <v>31819.75</v>
       </c>
       <c r="F126" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>24863.010060000001</v>
       </c>
       <c r="G126" s="1">
@@ -7446,7 +7446,7 @@
         <v>2953.82</v>
       </c>
       <c r="F127" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2884.7252000000003</v>
       </c>
       <c r="G127" s="1">
@@ -7476,7 +7476,7 @@
         <v>8218.26</v>
       </c>
       <c r="F128" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7724.0967000000001</v>
       </c>
       <c r="G128" s="1">
@@ -7506,7 +7506,7 @@
         <v>7943.47</v>
       </c>
       <c r="F129" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7449.3067000000001</v>
       </c>
       <c r="G129" s="1">
@@ -7536,7 +7536,7 @@
         <v>7853.76</v>
       </c>
       <c r="F130" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6180.0174999999999</v>
       </c>
       <c r="G130" s="1">
@@ -7566,7 +7566,7 @@
         <v>5584.09</v>
       </c>
       <c r="F131" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4383.5678500000004</v>
       </c>
       <c r="G131" s="1">
@@ -7596,7 +7596,7 @@
         <v>7239.82</v>
       </c>
       <c r="F132" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6805.6066000000001</v>
       </c>
       <c r="G132" s="1">
@@ -7626,7 +7626,7 @@
         <v>6993.04</v>
       </c>
       <c r="F133" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6558.8266000000003</v>
       </c>
       <c r="G133" s="1">
@@ -7656,7 +7656,7 @@
         <v>1132.55</v>
       </c>
       <c r="F134" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>971.38524999999993</v>
       </c>
       <c r="G134" s="1">
@@ -7686,7 +7686,7 @@
         <v>35315.339999999997</v>
       </c>
       <c r="F135" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>27606.087689999997</v>
       </c>
       <c r="G135" s="1">
@@ -7697,7 +7697,7 @@
         <v>7709.2523100000008</v>
       </c>
       <c r="I135" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -7718,7 +7718,7 @@
         <v>2291.85</v>
       </c>
       <c r="F136" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2232.5774999999999</v>
       </c>
       <c r="G136" s="1">
@@ -7747,7 +7747,7 @@
         <v>51892.51</v>
       </c>
       <c r="F137" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>40566.641670000005</v>
       </c>
       <c r="G137" s="1">
@@ -7758,7 +7758,7 @@
         <v>11325.868329999999</v>
       </c>
       <c r="I137" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -7779,7 +7779,7 @@
         <v>12967.61</v>
       </c>
       <c r="F138" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>10188.576500000001</v>
       </c>
       <c r="G138" s="1">
@@ -7809,7 +7809,7 @@
         <v>3601.48</v>
       </c>
       <c r="F139" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3508.3375000000001</v>
       </c>
       <c r="G139" s="1">
@@ -7839,7 +7839,7 @@
         <v>14419.61</v>
       </c>
       <c r="F140" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>13551.6348</v>
       </c>
       <c r="G140" s="1">
@@ -7869,7 +7869,7 @@
         <v>13921.74</v>
       </c>
       <c r="F141" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>13053.764799999999</v>
       </c>
       <c r="G141" s="1">
@@ -7899,7 +7899,7 @@
         <v>3077.93</v>
       </c>
       <c r="F142" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2628.0799499999998</v>
       </c>
       <c r="G142" s="1">
@@ -7929,7 +7929,7 @@
         <v>14693.53</v>
       </c>
       <c r="F143" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>11531.765500000001</v>
       </c>
       <c r="G143" s="1">
@@ -7959,7 +7959,7 @@
         <v>99264.6</v>
       </c>
       <c r="F144" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>77108.099190000008</v>
       </c>
       <c r="G144" s="1">
@@ -7970,7 +7970,7 @@
         <v>22156.500810000001</v>
       </c>
       <c r="I144" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -7991,7 +7991,7 @@
         <v>2946.67</v>
       </c>
       <c r="F145" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2870.4625000000001</v>
       </c>
       <c r="G145" s="1">
@@ -8021,7 +8021,7 @@
         <v>31950.78</v>
       </c>
       <c r="F146" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>30033.512199999997</v>
       </c>
       <c r="G146" s="1">
@@ -8051,7 +8051,7 @@
         <v>30871.17</v>
       </c>
       <c r="F147" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>28953.902199999997</v>
       </c>
       <c r="G147" s="1">
@@ -8081,7 +8081,7 @@
         <v>34460.269999999997</v>
       </c>
       <c r="F148" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>26999.217049999996</v>
       </c>
       <c r="G148" s="1">
@@ -8111,7 +8111,7 @@
         <v>2946.67</v>
       </c>
       <c r="F149" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2870.4625000000001</v>
       </c>
       <c r="G149" s="1">
@@ -8141,7 +8141,7 @@
         <v>8292.27</v>
       </c>
       <c r="F150" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>8224.5300000000007</v>
       </c>
       <c r="G150" s="1">
@@ -8171,7 +8171,7 @@
         <v>10835.82</v>
       </c>
       <c r="F151" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>10186.5321</v>
       </c>
       <c r="G151" s="1">
@@ -8201,7 +8201,7 @@
         <v>10472.75</v>
       </c>
       <c r="F152" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>9823.4621000000006</v>
       </c>
       <c r="G152" s="1">
@@ -8231,7 +8231,7 @@
         <v>54315.24</v>
       </c>
       <c r="F153" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>43049.626400000001</v>
       </c>
       <c r="G153" s="1">
@@ -8242,7 +8242,7 @@
         <v>11265.613599999999</v>
       </c>
       <c r="I153" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -8263,7 +8263,7 @@
         <v>12509.07</v>
       </c>
       <c r="F154" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>9783.6640000000007</v>
       </c>
       <c r="G154" s="1">
@@ -8293,7 +8293,7 @@
         <v>3601.48</v>
       </c>
       <c r="F155" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3508.3375000000001</v>
       </c>
       <c r="G155" s="1">
@@ -8323,7 +8323,7 @@
         <v>9330.91</v>
       </c>
       <c r="F156" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>8766.6358</v>
       </c>
       <c r="G156" s="1">
@@ -8353,7 +8353,7 @@
         <v>8978.39</v>
       </c>
       <c r="F157" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>8414.1157999999996</v>
       </c>
       <c r="G157" s="1">
@@ -8383,7 +8383,7 @@
         <v>43297.73</v>
       </c>
       <c r="F158" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>34614.997440000006</v>
       </c>
       <c r="G158" s="1">
@@ -8413,7 +8413,7 @@
         <v>9304.11</v>
       </c>
       <c r="F159" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7285.4580000000005</v>
       </c>
       <c r="G159" s="1">
@@ -8443,7 +8443,7 @@
         <v>2098.21</v>
       </c>
       <c r="F160" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2026.2362499999999</v>
       </c>
       <c r="G160" s="1">
@@ -8473,7 +8473,7 @@
         <v>4276.05</v>
       </c>
       <c r="F161" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4018.0735000000004</v>
       </c>
       <c r="G161" s="1">
@@ -8503,7 +8503,7 @@
         <v>4114.63</v>
       </c>
       <c r="F162" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3856.6535000000003</v>
       </c>
       <c r="G162" s="1">
@@ -8533,7 +8533,7 @@
         <v>812.54129999999998</v>
       </c>
       <c r="F163" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>0</v>
       </c>
       <c r="G163" s="1">
@@ -8563,7 +8563,7 @@
         <v>113678.25</v>
       </c>
       <c r="F164" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>89909.650089999996</v>
       </c>
       <c r="G164" s="1">
@@ -8574,7 +8574,7 @@
         <v>23768.599910000001</v>
       </c>
       <c r="I164" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -8595,7 +8595,7 @@
         <v>21290.75</v>
       </c>
       <c r="F165" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>16643.2215</v>
       </c>
       <c r="G165" s="1">
@@ -8625,7 +8625,7 @@
         <v>5554.1</v>
       </c>
       <c r="F166" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5363.5812500000002</v>
       </c>
       <c r="G166" s="1">
@@ -8655,7 +8655,7 @@
         <v>20761.64</v>
       </c>
       <c r="F167" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>19505.740399999999</v>
       </c>
       <c r="G167" s="1">
@@ -8685,7 +8685,7 @@
         <v>19977.2</v>
       </c>
       <c r="F168" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>18721.3004</v>
       </c>
       <c r="G168" s="1">
@@ -8715,7 +8715,7 @@
         <v>1216.28</v>
       </c>
       <c r="F169" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1187.8291999999999</v>
       </c>
       <c r="G169" s="1">
@@ -8745,7 +8745,7 @@
         <v>1818.52</v>
       </c>
       <c r="F170" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1722.1034</v>
       </c>
       <c r="G170" s="1">
@@ -8775,7 +8775,7 @@
         <v>1758.54</v>
       </c>
       <c r="F171" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1662.1233999999999</v>
       </c>
       <c r="G171" s="1">
@@ -8805,7 +8805,7 @@
         <v>51304.72</v>
       </c>
       <c r="F172" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>43168.886330000001</v>
       </c>
       <c r="G172" s="1">
@@ -8816,7 +8816,7 @@
         <v>8135.83367</v>
       </c>
       <c r="I172" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -8837,7 +8837,7 @@
         <v>12509.07</v>
       </c>
       <c r="F173" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>9783.6640000000007</v>
       </c>
       <c r="G173" s="1">
@@ -8867,7 +8867,7 @@
         <v>4092.59</v>
       </c>
       <c r="F174" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3986.7462500000001</v>
       </c>
       <c r="G174" s="1">
@@ -8897,7 +8897,7 @@
         <v>13177.9</v>
       </c>
       <c r="F175" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>12379.4712</v>
       </c>
       <c r="G175" s="1">
@@ -8927,7 +8927,7 @@
         <v>12679.72</v>
       </c>
       <c r="F176" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>11881.2912</v>
       </c>
       <c r="G176" s="1">
@@ -8957,7 +8957,7 @@
         <v>65689.95</v>
       </c>
       <c r="F177" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>51800.721039999997</v>
       </c>
       <c r="G177" s="1">
@@ -8968,7 +8968,7 @@
         <v>13889.228959999999</v>
       </c>
       <c r="I177" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -8989,7 +8989,7 @@
         <v>13710.38</v>
       </c>
       <c r="F178" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>10726.997499999999</v>
       </c>
       <c r="G178" s="1">
@@ -9019,7 +9019,7 @@
         <v>2962.19</v>
       </c>
       <c r="F179" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2860.58</v>
       </c>
       <c r="G179" s="1">
@@ -9049,7 +9049,7 @@
         <v>8865.11</v>
       </c>
       <c r="F180" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>8328.2705000000005</v>
       </c>
       <c r="G180" s="1">
@@ -9079,7 +9079,7 @@
         <v>8530.0300000000007</v>
       </c>
       <c r="F181" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7993.1905000000006</v>
       </c>
       <c r="G181" s="1">
@@ -9109,7 +9109,7 @@
         <v>11276.89</v>
       </c>
       <c r="F182" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>8816.7989999999991</v>
       </c>
       <c r="G182" s="1">
@@ -9139,7 +9139,7 @@
         <v>45655</v>
       </c>
       <c r="F183" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>36397.414510000002</v>
       </c>
       <c r="G183" s="1">
@@ -9150,7 +9150,7 @@
         <v>9257.5854899999995</v>
       </c>
       <c r="I183" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -9171,7 +9171,7 @@
         <v>2938.07</v>
       </c>
       <c r="F184" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2521.0174000000002</v>
       </c>
       <c r="G184" s="1">
@@ -9201,7 +9201,7 @@
         <v>347.51</v>
       </c>
       <c r="F185" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>339.38119999999998</v>
       </c>
       <c r="G185" s="1">
@@ -9231,7 +9231,7 @@
         <v>7486.19</v>
       </c>
       <c r="F186" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7037.1866999999993</v>
       </c>
       <c r="G186" s="1">
@@ -9261,7 +9261,7 @@
         <v>7232.81</v>
       </c>
       <c r="F187" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6783.8067000000001</v>
       </c>
       <c r="G187" s="1">
@@ -9291,7 +9291,7 @@
         <v>45156.87</v>
       </c>
       <c r="F188" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>36161.438310000005</v>
       </c>
       <c r="G188" s="1">
@@ -9302,7 +9302,7 @@
         <v>8995.4316899999994</v>
       </c>
       <c r="I188" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
@@ -9323,7 +9323,7 @@
         <v>1625.46</v>
       </c>
       <c r="F189" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1401.6922</v>
       </c>
       <c r="G189" s="1">
@@ -9353,7 +9353,7 @@
         <v>347.51</v>
       </c>
       <c r="F190" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>339.38119999999998</v>
       </c>
       <c r="G190" s="1">
@@ -9383,7 +9383,7 @@
         <v>5701.44</v>
       </c>
       <c r="F191" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5361.3851999999997</v>
       </c>
       <c r="G191" s="1">
@@ -9413,7 +9413,7 @@
         <v>5512.33</v>
       </c>
       <c r="F192" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5172.2752</v>
       </c>
       <c r="G192" s="1">
@@ -9443,7 +9443,7 @@
         <v>18952.16</v>
       </c>
       <c r="F193" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>17771.790499999999</v>
       </c>
       <c r="G193" s="1">
@@ -9473,7 +9473,7 @@
         <v>70581.3</v>
       </c>
       <c r="F194" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>56461.630850000001</v>
       </c>
       <c r="G194" s="1">
@@ -9503,7 +9503,7 @@
         <v>5060.3999999999996</v>
       </c>
       <c r="F195" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4886.8162499999999</v>
       </c>
       <c r="G195" s="1">
@@ -9533,7 +9533,7 @@
         <v>19622.310000000001</v>
       </c>
       <c r="F196" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>18441.940500000001</v>
       </c>
       <c r="G196" s="1">
@@ -9563,7 +9563,7 @@
         <v>35089.58</v>
       </c>
       <c r="F197" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>27391.403180000001</v>
       </c>
       <c r="G197" s="1">
@@ -9593,7 +9593,7 @@
         <v>7191.87</v>
       </c>
       <c r="F198" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5582.0288999999993</v>
       </c>
       <c r="G198" s="1">
@@ -9623,7 +9623,7 @@
         <v>3274.08</v>
       </c>
       <c r="F199" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3189.4049999999997</v>
       </c>
       <c r="G199" s="1">
@@ -9653,7 +9653,7 @@
         <v>1244.6099999999999</v>
       </c>
       <c r="F200" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1168.8541</v>
       </c>
       <c r="G200" s="1">
@@ -9683,7 +9683,7 @@
         <v>1197.49</v>
       </c>
       <c r="F201" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1121.7341000000001</v>
       </c>
       <c r="G201" s="1">
@@ -9713,7 +9713,7 @@
         <v>72267.289999999994</v>
       </c>
       <c r="F202" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>55217.651339999997</v>
       </c>
       <c r="G202" s="1">
@@ -9743,7 +9743,7 @@
         <v>45501.97</v>
       </c>
       <c r="F203" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>36360.423130000003</v>
       </c>
       <c r="G203" s="1">
@@ -9773,7 +9773,7 @@
         <v>2780.07</v>
       </c>
       <c r="F204" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2715.0396000000001</v>
       </c>
       <c r="G204" s="1">
@@ -9803,7 +9803,7 @@
         <v>7786.98</v>
       </c>
       <c r="F205" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7320.3642999999993</v>
       </c>
       <c r="G205" s="1">
@@ -9833,7 +9833,7 @@
         <v>7524.73</v>
       </c>
       <c r="F206" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7058.1142999999993</v>
       </c>
       <c r="G206" s="1">
@@ -9863,7 +9863,7 @@
         <v>78677.91</v>
       </c>
       <c r="F207" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>62780.167460000004</v>
       </c>
       <c r="G207" s="1">
@@ -9893,7 +9893,7 @@
         <v>3274.08</v>
       </c>
       <c r="F208" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3189.4049999999997</v>
       </c>
       <c r="G208" s="1">
@@ -9923,7 +9923,7 @@
         <v>10417.6</v>
       </c>
       <c r="F209" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>9794.0532999999996</v>
       </c>
       <c r="G209" s="1">
@@ -9953,7 +9953,7 @@
         <v>9945.61</v>
       </c>
       <c r="F210" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>9328.8373000000011</v>
       </c>
       <c r="G210" s="1">
@@ -9983,7 +9983,7 @@
         <v>72997.289999999994</v>
       </c>
       <c r="F211" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>51141.058029999993</v>
       </c>
       <c r="G211" s="1">
@@ -10013,7 +10013,7 @@
         <v>4517.6099999999997</v>
       </c>
       <c r="F212" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4411.9355999999998</v>
       </c>
       <c r="G212" s="1">
@@ -10043,7 +10043,7 @@
         <v>20434.16</v>
       </c>
       <c r="F213" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>19203.324199999999</v>
       </c>
       <c r="G213" s="1">
@@ -10073,7 +10073,7 @@
         <v>19750.080000000002</v>
       </c>
       <c r="F214" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>18519.244200000001</v>
       </c>
       <c r="G214" s="1">
@@ -10103,7 +10103,7 @@
         <v>141088.91</v>
       </c>
       <c r="F215" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>110390.30487000001</v>
       </c>
       <c r="G215" s="1">
@@ -10133,7 +10133,7 @@
         <v>9035.23</v>
       </c>
       <c r="F216" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>8823.8811999999998</v>
       </c>
       <c r="G216" s="1">
@@ -10163,7 +10163,7 @@
         <v>24918.74</v>
       </c>
       <c r="F217" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>23419.6538</v>
       </c>
       <c r="G217" s="1">
@@ -10193,7 +10193,7 @@
         <v>24074.32</v>
       </c>
       <c r="F218" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>22575.233799999998</v>
       </c>
       <c r="G218" s="1">
@@ -10223,7 +10223,7 @@
         <v>94014.77</v>
       </c>
       <c r="F219" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>74682.406240000011</v>
       </c>
       <c r="G219" s="1">
@@ -10253,7 +10253,7 @@
         <v>4911.1099999999997</v>
       </c>
       <c r="F220" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4784.0974999999999</v>
       </c>
       <c r="G220" s="1">
@@ -10283,7 +10283,7 @@
         <v>16326.67</v>
       </c>
       <c r="F221" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>15348.7302</v>
       </c>
       <c r="G221" s="1">
@@ -10313,7 +10313,7 @@
         <v>15771.88</v>
       </c>
       <c r="F222" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>14793.940199999999</v>
       </c>
       <c r="G222" s="1">
@@ -10343,7 +10343,7 @@
         <v>69673.600000000006</v>
       </c>
       <c r="F223" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>55668.140490000005</v>
       </c>
       <c r="G223" s="1">
@@ -10373,7 +10373,7 @@
         <v>3928.89</v>
       </c>
       <c r="F224" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3827.2799999999997</v>
       </c>
       <c r="G224" s="1">
@@ -10403,7 +10403,7 @@
         <v>10385.84</v>
       </c>
       <c r="F225" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>10303.987499999999</v>
       </c>
       <c r="G225" s="1">
@@ -10433,7 +10433,7 @@
         <v>13570.34</v>
       </c>
       <c r="F226" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>12755.6536</v>
       </c>
       <c r="G226" s="1">
@@ -10463,7 +10463,7 @@
         <v>13112.41</v>
       </c>
       <c r="F227" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>12297.723599999999</v>
       </c>
       <c r="G227" s="1">
@@ -10493,7 +10493,7 @@
         <v>39442.93</v>
       </c>
       <c r="F228" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>31227.14055</v>
       </c>
       <c r="G228" s="1">
@@ -10523,7 +10523,7 @@
         <v>2291.85</v>
       </c>
       <c r="F229" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2232.5774999999999</v>
       </c>
       <c r="G229" s="1">
@@ -10553,7 +10553,7 @@
         <v>9495.51</v>
       </c>
       <c r="F230" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>8925.1391999999996</v>
       </c>
       <c r="G230" s="1">
@@ -10583,7 +10583,7 @@
         <v>9170.98</v>
       </c>
       <c r="F231" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>8600.609199999999</v>
       </c>
       <c r="G231" s="1">
@@ -10613,7 +10613,7 @@
         <v>62138.44</v>
       </c>
       <c r="F232" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>49770.651440000001</v>
       </c>
       <c r="G232" s="1">
@@ -10643,7 +10643,7 @@
         <v>2267.5300000000002</v>
       </c>
       <c r="F233" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1931.2009000000003</v>
       </c>
       <c r="G233" s="1">
@@ -10673,7 +10673,7 @@
         <v>3274.08</v>
       </c>
       <c r="F234" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3189.4049999999997</v>
       </c>
       <c r="G234" s="1">
@@ -10703,7 +10703,7 @@
         <v>15544.98</v>
       </c>
       <c r="F235" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>14611.409899999999</v>
       </c>
       <c r="G235" s="1">
@@ -10733,7 +10733,7 @@
         <v>15019.11</v>
       </c>
       <c r="F236" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>14085.5399</v>
       </c>
       <c r="G236" s="1">
@@ -10763,7 +10763,7 @@
         <v>46053.89</v>
       </c>
       <c r="F237" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>36852.065820000003</v>
       </c>
       <c r="G237" s="1">
@@ -10774,7 +10774,7 @@
         <v>9201.8241799999996</v>
       </c>
       <c r="I237" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
@@ -10795,7 +10795,7 @@
         <v>2150.87</v>
       </c>
       <c r="F238" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2032.9459499999998</v>
       </c>
       <c r="G238" s="1">
@@ -10824,7 +10824,7 @@
         <v>2782.96</v>
       </c>
       <c r="F239" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2710.9862499999999</v>
       </c>
       <c r="G239" s="1">
@@ -10853,7 +10853,7 @@
         <v>13397.49</v>
       </c>
       <c r="F240" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>12590.367899999999</v>
       </c>
       <c r="G240" s="1">
@@ -10882,7 +10882,7 @@
         <v>12942.77</v>
       </c>
       <c r="F241" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>12135.6479</v>
       </c>
       <c r="G241" s="1">
@@ -10911,7 +10911,7 @@
         <v>43448.34</v>
       </c>
       <c r="F242" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>33770.224589999998</v>
       </c>
       <c r="G242" s="1">
@@ -10940,7 +10940,7 @@
         <v>199497.0199999999</v>
       </c>
       <c r="F243" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>163893.10179999989</v>
       </c>
       <c r="G243" s="1">
@@ -10969,7 +10969,7 @@
         <v>21745.43</v>
       </c>
       <c r="F244" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>20401.468400000002</v>
       </c>
       <c r="G244" s="1">
@@ -10998,7 +10998,7 @@
         <v>61013.9</v>
       </c>
       <c r="F245" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>48796.15554</v>
       </c>
       <c r="G245" s="1">
@@ -11009,7 +11009,7 @@
         <v>12217.74446</v>
       </c>
       <c r="I245" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
@@ -11030,7 +11030,7 @@
         <v>3702.73</v>
       </c>
       <c r="F246" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3575.7175000000002</v>
       </c>
       <c r="G246" s="1">
@@ -11060,7 +11060,7 @@
         <v>7124.94</v>
       </c>
       <c r="F247" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6698.9682999999995</v>
       </c>
       <c r="G247" s="1">
@@ -11090,7 +11090,7 @@
         <v>6884.12</v>
       </c>
       <c r="F248" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6458.1482999999998</v>
       </c>
       <c r="G248" s="1">
@@ -11120,7 +11120,7 @@
         <v>45463.33</v>
       </c>
       <c r="F249" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>36493.989500000003</v>
       </c>
       <c r="G249" s="1">
@@ -11150,7 +11150,7 @@
         <v>2432.56</v>
       </c>
       <c r="F250" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2375.6583999999998</v>
       </c>
       <c r="G250" s="1">
@@ -11180,7 +11180,7 @@
         <v>8496.42</v>
       </c>
       <c r="F251" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7985.5474999999997</v>
       </c>
       <c r="G251" s="1">
@@ -11210,7 +11210,7 @@
         <v>8208.7800000000007</v>
       </c>
       <c r="F252" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7697.9075000000003</v>
       </c>
       <c r="G252" s="1">
@@ -11240,7 +11240,7 @@
         <v>77697.039999999994</v>
       </c>
       <c r="F253" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>61327.53351999999</v>
       </c>
       <c r="G253" s="1">
@@ -11270,7 +11270,7 @@
         <v>27557.63</v>
       </c>
       <c r="F254" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>22847.385549999999</v>
       </c>
       <c r="G254" s="1">
@@ -11300,7 +11300,7 @@
         <v>4256.3</v>
       </c>
       <c r="F255" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4146.2224999999999</v>
       </c>
       <c r="G255" s="1">
@@ -11330,7 +11330,7 @@
         <v>22602.35</v>
       </c>
       <c r="F256" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>21243.5985</v>
       </c>
       <c r="G256" s="1">
@@ -11360,7 +11360,7 @@
         <v>21853.41</v>
       </c>
       <c r="F257" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>20494.658500000001</v>
       </c>
       <c r="G257" s="1">
@@ -11377,7 +11377,7 @@
         <v>773</v>
       </c>
       <c r="B258" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C258" t="str">
         <f t="shared" ref="C258:C321" si="4">IFERROR(MID(B258,FIND("(",B258)+1,4),"")</f>
@@ -11390,7 +11390,7 @@
         <v>14313.7</v>
       </c>
       <c r="F258" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>12079.69125</v>
       </c>
       <c r="G258" s="1">
@@ -11420,7 +11420,7 @@
         <v>143683.98000000001</v>
       </c>
       <c r="F259" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>114624.98770000001</v>
       </c>
       <c r="G259" s="1">
@@ -11431,7 +11431,7 @@
         <v>29058.992300000002</v>
       </c>
       <c r="I259" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
@@ -11452,7 +11452,7 @@
         <v>8021.48</v>
       </c>
       <c r="F260" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7814.0262499999999</v>
       </c>
       <c r="G260" s="1">
@@ -11481,7 +11481,7 @@
         <v>31390.23</v>
       </c>
       <c r="F261" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>29503.332299999998</v>
       </c>
       <c r="G261" s="1">
@@ -11510,7 +11510,7 @@
         <v>30327.02</v>
       </c>
       <c r="F262" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>28440.122299999999</v>
       </c>
       <c r="G262" s="1">
@@ -11539,7 +11539,7 @@
         <v>139814.25000000009</v>
       </c>
       <c r="F263" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>111219.44605000009</v>
       </c>
       <c r="G263" s="1">
@@ -11568,7 +11568,7 @@
         <v>7530.37</v>
       </c>
       <c r="F264" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7335.6175000000003</v>
       </c>
       <c r="G264" s="1">
@@ -11597,7 +11597,7 @@
         <v>28380.86</v>
       </c>
       <c r="F265" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>26675.053899999999</v>
       </c>
       <c r="G265" s="1">
@@ -11626,7 +11626,7 @@
         <v>27418.16</v>
       </c>
       <c r="F266" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>25712.353899999998</v>
       </c>
       <c r="G266" s="1">
@@ -11655,7 +11655,7 @@
         <v>4517.6099999999997</v>
       </c>
       <c r="F267" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4411.9355999999998</v>
       </c>
       <c r="G267" s="1">
@@ -11685,7 +11685,7 @@
         <v>77478.37</v>
       </c>
       <c r="F268" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>61608.863749999997</v>
       </c>
       <c r="G268" s="1">
@@ -11715,7 +11715,7 @@
         <v>11275.37</v>
       </c>
       <c r="F269" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>10600.340900000001</v>
       </c>
       <c r="G269" s="1">
@@ -11745,7 +11745,7 @@
         <v>10894.86</v>
       </c>
       <c r="F270" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>10219.830900000001</v>
       </c>
       <c r="G270" s="1">
@@ -11775,7 +11775,7 @@
         <v>18345.14</v>
       </c>
       <c r="F271" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>14659.67756</v>
       </c>
       <c r="G271" s="1">
@@ -11786,7 +11786,7 @@
         <v>3685.4624399999998</v>
       </c>
       <c r="I271" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
@@ -11807,7 +11807,7 @@
         <v>1216.28</v>
       </c>
       <c r="F272" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1187.8291999999999</v>
       </c>
       <c r="G272" s="1">
@@ -11836,7 +11836,7 @@
         <v>4011.01</v>
       </c>
       <c r="F273" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3770.5330000000004</v>
       </c>
       <c r="G273" s="1">
@@ -11865,7 +11865,7 @@
         <v>3875.61</v>
       </c>
       <c r="F274" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3635.1330000000003</v>
       </c>
       <c r="G274" s="1">
@@ -11894,7 +11894,7 @@
         <v>68663.899999999994</v>
       </c>
       <c r="F275" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>54385.786989999993</v>
       </c>
       <c r="G275" s="1">
@@ -11905,7 +11905,7 @@
         <v>14278.113010000001</v>
       </c>
       <c r="I275" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
@@ -11926,7 +11926,7 @@
         <v>3601.48</v>
       </c>
       <c r="F276" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3508.3375000000001</v>
       </c>
       <c r="G276" s="1">
@@ -11956,7 +11956,7 @@
         <v>19227.78</v>
       </c>
       <c r="F277" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>18071.345299999997</v>
       </c>
       <c r="G277" s="1">
@@ -11986,7 +11986,7 @@
         <v>18568.5</v>
       </c>
       <c r="F278" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>17412.065299999998</v>
       </c>
       <c r="G278" s="1">
@@ -12016,7 +12016,7 @@
         <v>99739.479999999894</v>
       </c>
       <c r="F279" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>79576.962539999891</v>
       </c>
       <c r="G279" s="1">
@@ -12027,7 +12027,7 @@
         <v>20162.517460000003</v>
       </c>
       <c r="I279" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
@@ -12048,7 +12048,7 @@
         <v>4016.84</v>
       </c>
       <c r="F280" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3401.9866000000002</v>
       </c>
       <c r="G280" s="1">
@@ -12077,7 +12077,7 @@
         <v>13802.96</v>
       </c>
       <c r="F281" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>10797.561999999998</v>
       </c>
       <c r="G281" s="1">
@@ -12106,7 +12106,7 @@
         <v>5074.82</v>
       </c>
       <c r="F282" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4943.5737499999996</v>
       </c>
       <c r="G282" s="1">
@@ -12135,7 +12135,7 @@
         <v>21233.93</v>
       </c>
       <c r="F283" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>19965.950100000002</v>
       </c>
       <c r="G283" s="1">
@@ -12164,7 +12164,7 @@
         <v>20531.95</v>
       </c>
       <c r="F284" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>19263.970100000002</v>
       </c>
       <c r="G284" s="1">
@@ -12193,7 +12193,7 @@
         <v>107244.24</v>
       </c>
       <c r="F285" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>84780.820540000001</v>
       </c>
       <c r="G285" s="1">
@@ -12204,7 +12204,7 @@
         <v>22463.419460000001</v>
       </c>
       <c r="I285" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
@@ -12225,7 +12225,7 @@
         <v>6255.16</v>
       </c>
       <c r="F286" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6108.8415999999997</v>
       </c>
       <c r="G286" s="1">
@@ -12254,7 +12254,7 @@
         <v>15257.89</v>
       </c>
       <c r="F287" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>15156.279999999999</v>
       </c>
       <c r="G287" s="1">
@@ -12283,7 +12283,7 @@
         <v>20072.5</v>
       </c>
       <c r="F288" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>18866.389299999999</v>
       </c>
       <c r="G288" s="1">
@@ -12312,7 +12312,7 @@
         <v>19382.62</v>
       </c>
       <c r="F289" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>18176.509299999998</v>
       </c>
       <c r="G289" s="1">
@@ -12328,7 +12328,7 @@
         <v>953</v>
       </c>
       <c r="B290" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C290" t="str">
         <f t="shared" si="4"/>
@@ -12341,7 +12341,7 @@
         <v>26469.02</v>
       </c>
       <c r="F290" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>21175.071260000001</v>
       </c>
       <c r="G290" s="1">
@@ -12352,7 +12352,7 @@
         <v>5293.9487400000007</v>
       </c>
       <c r="I290" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
@@ -12373,7 +12373,7 @@
         <v>4039.31</v>
       </c>
       <c r="F291" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3299.4198500000002</v>
       </c>
       <c r="G291" s="1">
@@ -12403,7 +12403,7 @@
         <v>2619.2600000000002</v>
       </c>
       <c r="F292" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2551.5200000000004</v>
       </c>
       <c r="G292" s="1">
@@ -12433,7 +12433,7 @@
         <v>5605.14</v>
       </c>
       <c r="F293" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5271.2947000000004</v>
       </c>
       <c r="G293" s="1">
@@ -12463,7 +12463,7 @@
         <v>5416.03</v>
       </c>
       <c r="F294" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5082.1846999999998</v>
       </c>
       <c r="G294" s="1">
@@ -12493,7 +12493,7 @@
         <v>53213.48</v>
       </c>
       <c r="F295" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>42699.94975</v>
       </c>
       <c r="G295" s="1">
@@ -12504,7 +12504,7 @@
         <v>10513.53025</v>
       </c>
       <c r="I295" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
@@ -12525,7 +12525,7 @@
         <v>3110.37</v>
       </c>
       <c r="F296" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3029.92875</v>
       </c>
       <c r="G296" s="1">
@@ -12554,7 +12554,7 @@
         <v>9772.59</v>
       </c>
       <c r="F297" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>9186.4132000000009</v>
       </c>
       <c r="G297" s="1">
@@ -12583,7 +12583,7 @@
         <v>9441.17</v>
       </c>
       <c r="F298" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>8854.9932000000008</v>
       </c>
       <c r="G298" s="1">
@@ -12612,7 +12612,7 @@
         <v>1324.32</v>
       </c>
       <c r="F299" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1099.8748000000001</v>
       </c>
       <c r="G299" s="1">
@@ -12641,7 +12641,7 @@
         <v>100092.93</v>
       </c>
       <c r="F300" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>79505.660159999999</v>
       </c>
       <c r="G300" s="1">
@@ -12670,7 +12670,7 @@
         <v>4747.41</v>
       </c>
       <c r="F301" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4624.6312499999995</v>
       </c>
       <c r="G301" s="1">
@@ -12699,7 +12699,7 @@
         <v>19055.009999999998</v>
       </c>
       <c r="F302" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>17912.349099999999</v>
       </c>
       <c r="G302" s="1">
@@ -12728,7 +12728,7 @@
         <v>18407.349999999999</v>
       </c>
       <c r="F303" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>17264.6891</v>
       </c>
       <c r="G303" s="1">
@@ -12757,7 +12757,7 @@
         <v>116834.14</v>
       </c>
       <c r="F304" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>94284.972989999995</v>
       </c>
       <c r="G304" s="1">
@@ -12786,7 +12786,7 @@
         <v>5733.9</v>
       </c>
       <c r="F305" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5599.7747999999992</v>
       </c>
       <c r="G305" s="1">
@@ -12815,7 +12815,7 @@
         <v>17885.96</v>
       </c>
       <c r="F306" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>16814.313200000001</v>
       </c>
       <c r="G306" s="1">
@@ -12844,7 +12844,7 @@
         <v>17279.14</v>
       </c>
       <c r="F307" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>16207.493199999999</v>
       </c>
       <c r="G307" s="1">
@@ -12873,7 +12873,7 @@
         <v>67635.66</v>
       </c>
       <c r="F308" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>53690.014910000005</v>
       </c>
       <c r="G308" s="1">
@@ -12884,7 +12884,7 @@
         <v>13945.64509</v>
       </c>
       <c r="I308" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
@@ -12905,7 +12905,7 @@
         <v>3437.78</v>
       </c>
       <c r="F309" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3348.8712500000001</v>
       </c>
       <c r="G309" s="1">
@@ -12935,7 +12935,7 @@
         <v>7615.34</v>
       </c>
       <c r="F310" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7550.4225000000006</v>
       </c>
       <c r="G310" s="1">
@@ -12965,7 +12965,7 @@
         <v>9936.85</v>
       </c>
       <c r="F311" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>9341.9799000000003</v>
       </c>
       <c r="G311" s="1">
@@ -12995,7 +12995,7 @@
         <v>9606.06</v>
       </c>
       <c r="F312" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>9011.1898999999994</v>
       </c>
       <c r="G312" s="1">
@@ -13025,7 +13025,7 @@
         <v>27349.03</v>
       </c>
       <c r="F313" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>21920.76413</v>
       </c>
       <c r="G313" s="1">
@@ -13055,7 +13055,7 @@
         <v>59735.83</v>
       </c>
       <c r="F314" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>46909.452929999999</v>
       </c>
       <c r="G314" s="1">
@@ -13085,7 +13085,7 @@
         <v>11768.46</v>
       </c>
       <c r="F315" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>9219.1779999999999</v>
       </c>
       <c r="G315" s="1">
@@ -13115,7 +13115,7 @@
         <v>4092.59</v>
       </c>
       <c r="F316" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3986.7462500000001</v>
       </c>
       <c r="G316" s="1">
@@ -13145,7 +13145,7 @@
         <v>13919.96</v>
       </c>
       <c r="F317" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>13076.8228</v>
       </c>
       <c r="G317" s="1">
@@ -13175,7 +13175,7 @@
         <v>13393.8</v>
       </c>
       <c r="F318" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>12550.6628</v>
       </c>
       <c r="G318" s="1">
@@ -13205,7 +13205,7 @@
         <v>73175.19</v>
       </c>
       <c r="F319" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>58510.157400000004</v>
       </c>
       <c r="G319" s="1">
@@ -13235,7 +13235,7 @@
         <v>18365.689999999999</v>
       </c>
       <c r="F320" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>14330.643999999998</v>
       </c>
       <c r="G320" s="1">
@@ -13265,7 +13265,7 @@
         <v>5565.93</v>
       </c>
       <c r="F321" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5421.9825000000001</v>
       </c>
       <c r="G321" s="1">
@@ -13295,7 +13295,7 @@
         <v>18798.490000000002</v>
       </c>
       <c r="F322" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>17659.329000000002</v>
       </c>
       <c r="G322" s="1">
@@ -13325,7 +13325,7 @@
         <v>18087.8</v>
       </c>
       <c r="F323" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>16948.638999999999</v>
       </c>
       <c r="G323" s="1">
@@ -13355,7 +13355,7 @@
         <v>5621</v>
       </c>
       <c r="F324" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4474.2746999999999</v>
       </c>
       <c r="G324" s="1">
@@ -13385,7 +13385,7 @@
         <v>1821.74</v>
       </c>
       <c r="F325" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1556.5379</v>
       </c>
       <c r="G325" s="1">
@@ -13415,7 +13415,7 @@
         <v>5433.35</v>
       </c>
       <c r="F326" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4290.8020000000006</v>
       </c>
       <c r="G326" s="1">
@@ -13445,7 +13445,7 @@
         <v>17585.490000000002</v>
       </c>
       <c r="F327" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>13376.702190000002</v>
       </c>
       <c r="G327" s="1">
@@ -13456,7 +13456,7 @@
         <v>4208.7878099999998</v>
       </c>
       <c r="I327" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
@@ -13477,7 +13477,7 @@
         <v>1473.33</v>
       </c>
       <c r="F328" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1435.2262499999999</v>
       </c>
       <c r="G328" s="1">
@@ -13506,7 +13506,7 @@
         <v>5590.77</v>
       </c>
       <c r="F329" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5277.6983</v>
       </c>
       <c r="G329" s="1">
@@ -13535,7 +13535,7 @@
         <v>5395.09</v>
       </c>
       <c r="F330" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5082.0182999999997</v>
       </c>
       <c r="G330" s="1">
@@ -13564,7 +13564,7 @@
         <v>17683.82</v>
       </c>
       <c r="F331" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>13998.51562</v>
       </c>
       <c r="G331" s="1">
@@ -13575,7 +13575,7 @@
         <v>3685.30438</v>
       </c>
       <c r="I331" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
@@ -13596,7 +13596,7 @@
         <v>4187.79</v>
       </c>
       <c r="F332" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3267.7114499999998</v>
       </c>
       <c r="G332" s="1">
@@ -13625,7 +13625,7 @@
         <v>1366.8</v>
       </c>
       <c r="F333" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1147.60465</v>
       </c>
       <c r="G333" s="1">
@@ -13654,7 +13654,7 @@
         <v>6732.78</v>
       </c>
       <c r="F334" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5318.143</v>
       </c>
       <c r="G334" s="1">
@@ -13683,7 +13683,7 @@
         <v>1637.04</v>
       </c>
       <c r="F335" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1594.7024999999999</v>
       </c>
       <c r="G335" s="1">
@@ -13712,7 +13712,7 @@
         <v>5081.28</v>
       </c>
       <c r="F336" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4816.3036999999995</v>
       </c>
       <c r="G336" s="1">
@@ -13741,7 +13741,7 @@
         <v>4915.88</v>
       </c>
       <c r="F337" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4650.9036999999998</v>
       </c>
       <c r="G337" s="1">
@@ -13770,7 +13770,7 @@
         <v>5355.79</v>
       </c>
       <c r="F338" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4326.7629500000003</v>
       </c>
       <c r="G338" s="1">
@@ -13799,7 +13799,7 @@
         <v>9070</v>
       </c>
       <c r="F339" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7198.1180000000004</v>
       </c>
       <c r="G339" s="1">
@@ -13828,7 +13828,7 @@
         <v>32355.56</v>
       </c>
       <c r="F340" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>25791.633030000001</v>
       </c>
       <c r="G340" s="1">
@@ -13839,7 +13839,7 @@
         <v>6563.9269700000004</v>
       </c>
       <c r="I340" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
@@ -13860,7 +13860,7 @@
         <v>2291.85</v>
       </c>
       <c r="F341" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2232.5774999999999</v>
       </c>
       <c r="G341" s="1">
@@ -13890,7 +13890,7 @@
         <v>7122.55</v>
       </c>
       <c r="F342" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6698.3847000000005</v>
       </c>
       <c r="G342" s="1">
@@ -13920,7 +13920,7 @@
         <v>6879.12</v>
       </c>
       <c r="F343" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6454.9547000000002</v>
       </c>
       <c r="G343" s="1">
@@ -13950,7 +13950,7 @@
         <v>24842.98</v>
       </c>
       <c r="F344" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>19864.03355</v>
       </c>
       <c r="G344" s="1">
@@ -13980,7 +13980,7 @@
         <v>1096.23</v>
       </c>
       <c r="F345" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>944.04079999999999</v>
       </c>
       <c r="G345" s="1">
@@ -14010,7 +14010,7 @@
         <v>2432.56</v>
       </c>
       <c r="F346" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2375.6583999999998</v>
       </c>
       <c r="G346" s="1">
@@ -14040,7 +14040,7 @@
         <v>6902.62</v>
       </c>
       <c r="F347" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6493.4704000000002</v>
       </c>
       <c r="G347" s="1">
@@ -14070,7 +14070,7 @@
         <v>6665.15</v>
       </c>
       <c r="F348" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6256.0003999999999</v>
       </c>
       <c r="G348" s="1">
@@ -14100,7 +14100,7 @@
         <v>8908.2900000000009</v>
       </c>
       <c r="F349" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7176.0653000000011</v>
       </c>
       <c r="G349" s="1">
@@ -14130,7 +14130,7 @@
         <v>868.77</v>
       </c>
       <c r="F350" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>848.44799999999998</v>
       </c>
       <c r="G350" s="1">
@@ -14160,7 +14160,7 @@
         <v>1927.37</v>
       </c>
       <c r="F351" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1814.0183999999999</v>
       </c>
       <c r="G351" s="1">
@@ -14190,7 +14190,7 @@
         <v>1862.8</v>
       </c>
       <c r="F352" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1749.4484</v>
       </c>
       <c r="G352" s="1">
@@ -14220,7 +14220,7 @@
         <v>12692.2</v>
       </c>
       <c r="F353" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>9999.6140300000006</v>
       </c>
       <c r="G353" s="1">
@@ -14250,7 +14250,7 @@
         <v>1659.79</v>
       </c>
       <c r="F354" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1358.347</v>
       </c>
       <c r="G354" s="1">
@@ -14280,7 +14280,7 @@
         <v>1216.28</v>
       </c>
       <c r="F355" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1187.8291999999999</v>
       </c>
       <c r="G355" s="1">
@@ -14310,7 +14310,7 @@
         <v>3795.21</v>
       </c>
       <c r="F356" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3566.5875000000001</v>
       </c>
       <c r="G356" s="1">
@@ -14340,7 +14340,7 @@
         <v>3666.69</v>
       </c>
       <c r="F357" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3438.0675000000001</v>
       </c>
       <c r="G357" s="1">
@@ -14370,7 +14370,7 @@
         <v>23486.01</v>
       </c>
       <c r="F358" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>18715.386629999997</v>
       </c>
       <c r="G358" s="1">
@@ -14381,7 +14381,7 @@
         <v>4770.6233700000003</v>
       </c>
       <c r="I358" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.25">
@@ -14402,7 +14402,7 @@
         <v>12775.57</v>
       </c>
       <c r="F359" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>10423.580749999999</v>
       </c>
       <c r="G359" s="1">
@@ -14431,7 +14431,7 @@
         <v>1800.74</v>
       </c>
       <c r="F360" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1754.16875</v>
       </c>
       <c r="G360" s="1">
@@ -14460,7 +14460,7 @@
         <v>6563.34</v>
       </c>
       <c r="F361" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6212.1081000000004</v>
       </c>
       <c r="G361" s="1">
@@ -14489,7 +14489,7 @@
         <v>6208.44</v>
       </c>
       <c r="F362" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5862.9659999999994</v>
       </c>
       <c r="G362" s="1">
@@ -14519,7 +14519,7 @@
         <v>20982.42</v>
       </c>
       <c r="F363" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>16909.665399999998</v>
       </c>
       <c r="G363" s="1">
@@ -14530,7 +14530,7 @@
         <v>4072.7546000000002</v>
       </c>
       <c r="I363" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
@@ -14551,7 +14551,7 @@
         <v>5405.23</v>
       </c>
       <c r="F364" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4471.2647499999994</v>
       </c>
       <c r="G364" s="1">
@@ -14580,7 +14580,7 @@
         <v>1821.74</v>
       </c>
       <c r="F365" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1556.5379</v>
       </c>
       <c r="G365" s="1">
@@ -14609,7 +14609,7 @@
         <v>6880.05</v>
       </c>
       <c r="F366" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5431.5430000000006</v>
       </c>
       <c r="G366" s="1">
@@ -14638,7 +14638,7 @@
         <v>1800.74</v>
       </c>
       <c r="F367" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1754.16875</v>
       </c>
       <c r="G367" s="1">
@@ -14667,7 +14667,7 @@
         <v>6652.3</v>
       </c>
       <c r="F368" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6291.02</v>
       </c>
       <c r="G368" s="1">
@@ -14696,7 +14696,7 @@
         <v>6426.62</v>
       </c>
       <c r="F369" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6065.34</v>
       </c>
       <c r="G369" s="1">
@@ -14725,7 +14725,7 @@
         <v>20584.57</v>
       </c>
       <c r="F370" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>16661.667569999998</v>
       </c>
       <c r="G370" s="1">
@@ -14736,7 +14736,7 @@
         <v>3922.9024300000001</v>
       </c>
       <c r="I370" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.25">
@@ -14757,7 +14757,7 @@
         <v>5211.6400000000003</v>
       </c>
       <c r="F371" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4130.3967000000002</v>
       </c>
       <c r="G371" s="1">
@@ -14786,7 +14786,7 @@
         <v>1914.47</v>
       </c>
       <c r="F372" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1631.6555000000001</v>
       </c>
       <c r="G372" s="1">
@@ -14816,7 +14816,7 @@
         <v>6438.24</v>
       </c>
       <c r="F373" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5091.3429999999998</v>
       </c>
       <c r="G373" s="1">
@@ -14846,7 +14846,7 @@
         <v>1637.04</v>
       </c>
       <c r="F374" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1594.7024999999999</v>
       </c>
       <c r="G374" s="1">
@@ -14876,7 +14876,7 @@
         <v>5683.77</v>
       </c>
       <c r="F375" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5342.9249</v>
       </c>
       <c r="G375" s="1">
@@ -14906,7 +14906,7 @@
         <v>5495.27</v>
       </c>
       <c r="F376" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5154.4249</v>
       </c>
       <c r="G376" s="1">
@@ -14923,7 +14923,7 @@
         <v>644</v>
       </c>
       <c r="B377" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C377" t="str">
         <f t="shared" si="5"/>
@@ -14936,7 +14936,7 @@
         <v>16402.2</v>
       </c>
       <c r="F377" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>13087.35439</v>
       </c>
       <c r="G377" s="1">
@@ -14966,7 +14966,7 @@
         <v>4578.12</v>
       </c>
       <c r="F378" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3738.0311000000002</v>
       </c>
       <c r="G378" s="1">
@@ -14996,7 +14996,7 @@
         <v>1576.88</v>
       </c>
       <c r="F379" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1344.6447000000001</v>
       </c>
       <c r="G379" s="1">
@@ -15026,7 +15026,7 @@
         <v>5227.17</v>
       </c>
       <c r="F380" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4132.04</v>
       </c>
       <c r="G380" s="1">
@@ -15056,7 +15056,7 @@
         <v>1309.6300000000001</v>
       </c>
       <c r="F381" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1275.7600000000002</v>
       </c>
       <c r="G381" s="1">
@@ -15086,7 +15086,7 @@
         <v>5344.49</v>
       </c>
       <c r="F382" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5062.3528999999999</v>
       </c>
       <c r="G382" s="1">
@@ -15116,7 +15116,7 @@
         <v>5168.24</v>
       </c>
       <c r="F383" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4886.1028999999999</v>
       </c>
       <c r="G383" s="1">
@@ -15133,7 +15133,7 @@
         <v>395</v>
       </c>
       <c r="B384" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C384" t="str">
         <f t="shared" si="5"/>
@@ -15146,7 +15146,7 @@
         <v>20818.21</v>
       </c>
       <c r="F384" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>16466.739170000001</v>
       </c>
       <c r="G384" s="1">
@@ -15157,7 +15157,7 @@
         <v>4351.4708300000002</v>
       </c>
       <c r="I384" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.25">
@@ -15178,7 +15178,7 @@
         <v>5515.11</v>
       </c>
       <c r="F385" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4400.39185</v>
       </c>
       <c r="G385" s="1">
@@ -15207,7 +15207,7 @@
         <v>918.6</v>
       </c>
       <c r="F386" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>784.53125</v>
       </c>
       <c r="G386" s="1">
@@ -15236,7 +15236,7 @@
         <v>6732.78</v>
       </c>
       <c r="F387" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5318.143</v>
       </c>
       <c r="G387" s="1">
@@ -15265,7 +15265,7 @@
         <v>1800.74</v>
       </c>
       <c r="F388" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1754.16875</v>
       </c>
       <c r="G388" s="1">
@@ -15294,7 +15294,7 @@
         <v>4996.13</v>
       </c>
       <c r="F389" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4734.4278000000004</v>
       </c>
       <c r="G389" s="1">
@@ -15323,7 +15323,7 @@
         <v>4833.34</v>
       </c>
       <c r="F390" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4571.6378000000004</v>
       </c>
       <c r="G390" s="1">
@@ -15339,7 +15339,7 @@
         <v>987</v>
       </c>
       <c r="B391" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C391" t="str">
         <f t="shared" si="6"/>
@@ -15352,7 +15352,7 @@
         <v>17200.580000000002</v>
       </c>
       <c r="F391" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>13704.134740000001</v>
       </c>
       <c r="G391" s="1">
@@ -15363,7 +15363,7 @@
         <v>3496.44526</v>
       </c>
       <c r="I391" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.25">
@@ -15384,7 +15384,7 @@
         <v>5915.8</v>
       </c>
       <c r="F392" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4734.4708500000006</v>
       </c>
       <c r="G392" s="1">
@@ -15413,7 +15413,7 @@
         <v>2629.72</v>
       </c>
       <c r="F393" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2264.9965499999998</v>
       </c>
       <c r="G393" s="1">
@@ -15442,7 +15442,7 @@
         <v>4284.6499999999996</v>
       </c>
       <c r="F394" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3406.2879999999996</v>
       </c>
       <c r="G394" s="1">
@@ -15471,7 +15471,7 @@
         <v>1145.93</v>
       </c>
       <c r="F395" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1116.29375</v>
       </c>
       <c r="G395" s="1">
@@ -15500,7 +15500,7 @@
         <v>6852.98</v>
       </c>
       <c r="F396" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6443.0400999999993</v>
       </c>
       <c r="G396" s="1">
@@ -15529,7 +15529,7 @@
         <v>6623.02</v>
       </c>
       <c r="F397" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6213.0801000000001</v>
       </c>
       <c r="G397" s="1">
@@ -15558,7 +15558,7 @@
         <v>6082.63</v>
       </c>
       <c r="F398" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4973.7826500000001</v>
       </c>
       <c r="G398" s="1">
@@ -15587,7 +15587,7 @@
         <v>2619.11</v>
       </c>
       <c r="F399" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2229.3227500000003</v>
       </c>
       <c r="G399" s="1">
@@ -15616,7 +15616,7 @@
         <v>7796.57</v>
       </c>
       <c r="F400" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6164.0360000000001</v>
       </c>
       <c r="G400" s="1">
@@ -15645,7 +15645,7 @@
         <v>24091.26</v>
       </c>
       <c r="F401" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>18959.79694</v>
       </c>
       <c r="G401" s="1">
@@ -15656,7 +15656,7 @@
         <v>5131.46306</v>
       </c>
       <c r="I401" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.25">
@@ -15677,7 +15677,7 @@
         <v>2128.15</v>
       </c>
       <c r="F402" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2073.1112499999999</v>
       </c>
       <c r="G402" s="1">
@@ -15706,7 +15706,7 @@
         <v>8551.52</v>
       </c>
       <c r="F403" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>8093.8234000000002</v>
       </c>
       <c r="G403" s="1">
@@ -15735,7 +15735,7 @@
         <v>8265.86</v>
       </c>
       <c r="F404" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7808.1634000000004</v>
       </c>
       <c r="G404" s="1">
@@ -15764,7 +15764,7 @@
         <v>28497.01</v>
       </c>
       <c r="F405" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>22617.6296</v>
       </c>
       <c r="G405" s="1">
@@ -15775,7 +15775,7 @@
         <v>5879.3804</v>
       </c>
       <c r="I405" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.25">
@@ -15796,7 +15796,7 @@
         <v>8747.48</v>
       </c>
       <c r="F406" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7162.9285</v>
       </c>
       <c r="G406" s="1">
@@ -15826,7 +15826,7 @@
         <v>3404.92</v>
       </c>
       <c r="F407" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2879.42695</v>
       </c>
       <c r="G407" s="1">
@@ -15856,7 +15856,7 @@
         <v>9802.9</v>
       </c>
       <c r="F408" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7735.7009999999991</v>
       </c>
       <c r="G408" s="1">
@@ -15886,7 +15886,7 @@
         <v>2619.2600000000002</v>
       </c>
       <c r="F409" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2551.5200000000004</v>
       </c>
       <c r="G409" s="1">
@@ -15916,7 +15916,7 @@
         <v>10246.39</v>
       </c>
       <c r="F410" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>9702.7764999999999</v>
       </c>
       <c r="G410" s="1">
@@ -15946,7 +15946,7 @@
         <v>9906.7199999999993</v>
       </c>
       <c r="F411" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>9363.1064999999999</v>
       </c>
       <c r="G411" s="1">
@@ -15976,7 +15976,7 @@
         <v>32023.85</v>
       </c>
       <c r="F412" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>25473.290389999998</v>
       </c>
       <c r="G412" s="1">
@@ -15987,7 +15987,7 @@
         <v>6550.5596099999993</v>
       </c>
       <c r="I412" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.25">
@@ -16008,7 +16008,7 @@
         <v>6656.14</v>
       </c>
       <c r="F413" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5385.7327500000001</v>
       </c>
       <c r="G413" s="1">
@@ -16037,7 +16037,7 @@
         <v>11164.69</v>
       </c>
       <c r="F414" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>8837.8209999999999</v>
       </c>
       <c r="G414" s="1">
@@ -16066,7 +16066,7 @@
         <v>3110.37</v>
       </c>
       <c r="F415" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3029.92875</v>
       </c>
       <c r="G415" s="1">
@@ -16095,7 +16095,7 @@
         <v>7242.67</v>
       </c>
       <c r="F416" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7187.3490000000002</v>
       </c>
       <c r="G416" s="1">
@@ -16124,7 +16124,7 @@
         <v>9502.36</v>
       </c>
       <c r="F417" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>8930.860200000001</v>
       </c>
       <c r="G417" s="1">
@@ -16153,7 +16153,7 @@
         <v>9180.1200000000008</v>
       </c>
       <c r="F418" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>8608.6202000000012</v>
       </c>
       <c r="G418" s="1">
@@ -16182,7 +16182,7 @@
         <v>17976.37</v>
       </c>
       <c r="F419" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>13889.536769999999</v>
       </c>
       <c r="G419" s="1">
@@ -16211,7 +16211,7 @@
         <v>3582.61</v>
       </c>
       <c r="F420" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2935.6365500000002</v>
       </c>
       <c r="G420" s="1">
@@ -16240,7 +16240,7 @@
         <v>1086.18</v>
       </c>
       <c r="F421" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>933.82145000000014</v>
       </c>
       <c r="G421" s="1">
@@ -16269,7 +16269,7 @@
         <v>6588.96</v>
       </c>
       <c r="F422" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5234.16</v>
       </c>
       <c r="G422" s="1">
@@ -16298,7 +16298,7 @@
         <v>3767.2</v>
       </c>
       <c r="F423" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3564.2057999999997</v>
       </c>
       <c r="G423" s="1">
@@ -16327,7 +16327,7 @@
         <v>1637.04</v>
       </c>
       <c r="F424" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1594.7024999999999</v>
       </c>
       <c r="G424" s="1">
@@ -16356,7 +16356,7 @@
         <v>3640.38</v>
       </c>
       <c r="F425" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3437.3858</v>
       </c>
       <c r="G425" s="1">
@@ -16385,7 +16385,7 @@
         <v>26421.09</v>
       </c>
       <c r="F426" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>21136.715179999999</v>
       </c>
       <c r="G426" s="1">
@@ -16396,7 +16396,7 @@
         <v>5284.37482</v>
       </c>
       <c r="I426" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.25">
@@ -16417,7 +16417,7 @@
         <v>1651.73</v>
       </c>
       <c r="F427" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1418.8172999999999</v>
       </c>
       <c r="G427" s="1">
@@ -16447,7 +16447,7 @@
         <v>6795.13</v>
       </c>
       <c r="F428" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5392.9120000000003</v>
       </c>
       <c r="G428" s="1">
@@ -16477,7 +16477,7 @@
         <v>1637.04</v>
       </c>
       <c r="F429" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1594.7024999999999</v>
       </c>
       <c r="G429" s="1">
@@ -16507,7 +16507,7 @@
         <v>6104.07</v>
       </c>
       <c r="F430" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5777.2244999999994</v>
       </c>
       <c r="G430" s="1">
@@ -16537,7 +16537,7 @@
         <v>5899.81</v>
       </c>
       <c r="F431" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5572.9645</v>
       </c>
       <c r="G431" s="1">
@@ -16567,7 +16567,7 @@
         <v>31973.68</v>
       </c>
       <c r="F432" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>25718.410340000002</v>
       </c>
       <c r="G432" s="1">
@@ -16597,7 +16597,7 @@
         <v>7742.38</v>
       </c>
       <c r="F433" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5985.4866499999998</v>
       </c>
       <c r="G433" s="1">
@@ -16627,7 +16627,7 @@
         <v>3477.35</v>
       </c>
       <c r="F434" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2965.1791499999999</v>
       </c>
       <c r="G434" s="1">
@@ -16657,7 +16657,7 @@
         <v>8448.01</v>
       </c>
       <c r="F435" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6692.415</v>
       </c>
       <c r="G435" s="1">
@@ -16687,7 +16687,7 @@
         <v>2291.85</v>
       </c>
       <c r="F436" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2232.5774999999999</v>
       </c>
       <c r="G436" s="1">
@@ -16717,7 +16717,7 @@
         <v>11627.86</v>
       </c>
       <c r="F437" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>10998.103800000001</v>
       </c>
       <c r="G437" s="1">
@@ -16747,7 +16747,7 @@
         <v>11234.8</v>
       </c>
       <c r="F438" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>10605.043799999999</v>
       </c>
       <c r="G438" s="1">
@@ -16764,7 +16764,7 @@
         <v>168</v>
       </c>
       <c r="B439" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C439" t="str">
         <f t="shared" si="6"/>
@@ -16777,7 +16777,7 @@
         <v>23287.7</v>
       </c>
       <c r="F439" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>18492.814420000002</v>
       </c>
       <c r="G439" s="1">
@@ -16807,7 +16807,7 @@
         <v>1800.74</v>
       </c>
       <c r="F440" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1754.16875</v>
       </c>
       <c r="G440" s="1">
@@ -16837,7 +16837,7 @@
         <v>7138.16</v>
       </c>
       <c r="F441" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6752.9452000000001</v>
       </c>
       <c r="G441" s="1">
@@ -16867,7 +16867,7 @@
         <v>6897.02</v>
       </c>
       <c r="F442" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6511.8052000000007</v>
       </c>
       <c r="G442" s="1">
@@ -16884,7 +16884,7 @@
         <v>149</v>
       </c>
       <c r="B443" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C443" t="str">
         <f t="shared" si="6"/>
@@ -16897,7 +16897,7 @@
         <v>53858.12</v>
       </c>
       <c r="F443" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>43108.538430000001</v>
       </c>
       <c r="G443" s="1">
@@ -16927,7 +16927,7 @@
         <v>2455.56</v>
       </c>
       <c r="F444" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2392.05375</v>
       </c>
       <c r="G444" s="1">
@@ -16957,7 +16957,7 @@
         <v>3384.62</v>
       </c>
       <c r="F445" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2890.0615499999999</v>
       </c>
       <c r="G445" s="1">
@@ -16987,7 +16987,7 @@
         <v>4212.46</v>
       </c>
       <c r="F446" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3404.6605</v>
       </c>
       <c r="G446" s="1">
@@ -17017,7 +17017,7 @@
         <v>36710.050000000003</v>
       </c>
       <c r="F447" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>28820.733480000003</v>
       </c>
       <c r="G447" s="1">
@@ -17047,7 +17047,7 @@
         <v>2619.2600000000002</v>
       </c>
       <c r="F448" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2551.5200000000004</v>
       </c>
       <c r="G448" s="1">
@@ -17077,7 +17077,7 @@
         <v>13933.33</v>
       </c>
       <c r="F449" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>13176.109699999999</v>
       </c>
       <c r="G449" s="1">
@@ -17107,7 +17107,7 @@
         <v>13461.16</v>
       </c>
       <c r="F450" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>12703.939699999999</v>
       </c>
       <c r="G450" s="1">
@@ -17137,7 +17137,7 @@
         <v>46299.09</v>
       </c>
       <c r="F451" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>36065.958189999998</v>
       </c>
       <c r="G451" s="1">
@@ -17167,7 +17167,7 @@
         <v>1896.6</v>
       </c>
       <c r="F452" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1630.7204999999999</v>
       </c>
       <c r="G452" s="1">
@@ -17197,7 +17197,7 @@
         <v>2946.67</v>
       </c>
       <c r="F453" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2870.4625000000001</v>
       </c>
       <c r="G453" s="1">
@@ -17227,7 +17227,7 @@
         <v>12857.52</v>
       </c>
       <c r="F454" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>12155.507800000001</v>
       </c>
       <c r="G454" s="1">
@@ -17257,7 +17257,7 @@
         <v>12419.33</v>
       </c>
       <c r="F455" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>11717.317800000001</v>
       </c>
       <c r="G455" s="1">
@@ -17287,7 +17287,7 @@
         <v>19201.39</v>
       </c>
       <c r="F456" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>15824.133269999998</v>
       </c>
       <c r="G456" s="1">
@@ -17317,7 +17317,7 @@
         <v>1096.23</v>
       </c>
       <c r="F457" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>944.04079999999999</v>
       </c>
       <c r="G457" s="1">
@@ -17347,7 +17347,7 @@
         <v>4373.01</v>
       </c>
       <c r="F458" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3474.326</v>
       </c>
       <c r="G458" s="1">
@@ -17377,7 +17377,7 @@
         <v>1390.04</v>
       </c>
       <c r="F459" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1357.5247999999999</v>
       </c>
       <c r="G459" s="1">
@@ -17407,7 +17407,7 @@
         <v>5735.63</v>
       </c>
       <c r="F460" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5425.7195000000002</v>
       </c>
       <c r="G460" s="1">
@@ -17437,7 +17437,7 @@
         <v>5542.85</v>
       </c>
       <c r="F461" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5232.9395000000004</v>
       </c>
       <c r="G461" s="1">
@@ -17467,7 +17467,7 @@
         <v>23084</v>
       </c>
       <c r="F462" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>18273.65841</v>
       </c>
       <c r="G462" s="1">
@@ -17478,7 +17478,7 @@
         <v>4810.3415900000009</v>
       </c>
       <c r="I462" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="463" spans="1:9" x14ac:dyDescent="0.25">
@@ -17499,7 +17499,7 @@
         <v>4827.41</v>
       </c>
       <c r="F463" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4063.9237499999999</v>
       </c>
       <c r="G463" s="1">
@@ -17528,7 +17528,7 @@
         <v>2804.58</v>
       </c>
       <c r="F464" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2379.5679500000001</v>
       </c>
       <c r="G464" s="1">
@@ -17557,7 +17557,7 @@
         <v>6673.87</v>
       </c>
       <c r="F465" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5272.7809999999999</v>
       </c>
       <c r="G465" s="1">
@@ -17586,7 +17586,7 @@
         <v>1911.3</v>
       </c>
       <c r="F466" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1866.5916</v>
       </c>
       <c r="G466" s="1">
@@ -17615,7 +17615,7 @@
         <v>8564.7199999999993</v>
       </c>
       <c r="F467" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>8107.1362999999992</v>
       </c>
       <c r="G467" s="1">
@@ -17644,7 +17644,7 @@
         <v>8278.77</v>
       </c>
       <c r="F468" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7821.1863000000003</v>
       </c>
       <c r="G468" s="1">
@@ -17673,7 +17673,7 @@
         <v>34119.22</v>
       </c>
       <c r="F469" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>27286.952310000001</v>
       </c>
       <c r="G469" s="1">
@@ -17684,7 +17684,7 @@
         <v>6832.2676899999988</v>
       </c>
       <c r="I469" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.25">
@@ -17705,7 +17705,7 @@
         <v>10024.219999999999</v>
       </c>
       <c r="F470" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>8136.249749999999</v>
       </c>
       <c r="G470" s="1">
@@ -17734,7 +17734,7 @@
         <v>2526.38</v>
       </c>
       <c r="F471" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2154.2051500000002</v>
       </c>
       <c r="G471" s="1">
@@ -17763,7 +17763,7 @@
         <v>9986.5300000000007</v>
       </c>
       <c r="F472" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7930.621000000001</v>
       </c>
       <c r="G472" s="1">
@@ -17792,7 +17792,7 @@
         <v>3110.37</v>
       </c>
       <c r="F473" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3029.92875</v>
       </c>
       <c r="G473" s="1">
@@ -17821,7 +17821,7 @@
         <v>11969.44</v>
       </c>
       <c r="F474" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>11336.5226</v>
       </c>
       <c r="G474" s="1">
@@ -17850,7 +17850,7 @@
         <v>11573.47</v>
       </c>
       <c r="F475" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>10940.552599999999</v>
       </c>
       <c r="G475" s="1">
@@ -17879,7 +17879,7 @@
         <v>24673.8</v>
       </c>
       <c r="F476" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>19764.862839999998</v>
       </c>
       <c r="G476" s="1">
@@ -17890,7 +17890,7 @@
         <v>4908.9371600000004</v>
       </c>
       <c r="I476" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="477" spans="1:9" x14ac:dyDescent="0.25">
@@ -17911,7 +17911,7 @@
         <v>6910.79</v>
       </c>
       <c r="F477" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5626.1008999999995</v>
       </c>
       <c r="G477" s="1">
@@ -17941,7 +17941,7 @@
         <v>1576.88</v>
       </c>
       <c r="F478" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1344.6447000000001</v>
       </c>
       <c r="G478" s="1">
@@ -17971,7 +17971,7 @@
         <v>8532.92</v>
       </c>
       <c r="F479" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6731.0360000000001</v>
       </c>
       <c r="G479" s="1">
@@ -18001,7 +18001,7 @@
         <v>2291.85</v>
       </c>
       <c r="F480" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2232.5774999999999</v>
       </c>
       <c r="G480" s="1">
@@ -18031,7 +18031,7 @@
         <v>8238</v>
       </c>
       <c r="F481" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7794.5288</v>
       </c>
       <c r="G481" s="1">
@@ -18061,7 +18061,7 @@
         <v>7959.69</v>
       </c>
       <c r="F482" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7516.2187999999996</v>
       </c>
       <c r="G482" s="1">
@@ -18091,7 +18091,7 @@
         <v>8947.2199999999993</v>
       </c>
       <c r="F483" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7129.3606499999987</v>
       </c>
       <c r="G483" s="1">
@@ -18121,7 +18121,7 @@
         <v>2192.67</v>
       </c>
       <c r="F484" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1857.0183000000002</v>
       </c>
       <c r="G484" s="1">
@@ -18151,7 +18151,7 @@
         <v>7384.21</v>
       </c>
       <c r="F485" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5846.5119999999997</v>
       </c>
       <c r="G485" s="1">
@@ -18181,7 +18181,7 @@
         <v>25253.17</v>
       </c>
       <c r="F486" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>19928.546329999997</v>
       </c>
       <c r="G486" s="1">
@@ -18192,7 +18192,7 @@
         <v>5324.623669999999</v>
       </c>
       <c r="I486" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="487" spans="1:9" x14ac:dyDescent="0.25">
@@ -18213,7 +18213,7 @@
         <v>2128.15</v>
       </c>
       <c r="F487" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2073.1112499999999</v>
       </c>
       <c r="G487" s="1">
@@ -18243,7 +18243,7 @@
         <v>9725.5</v>
       </c>
       <c r="F488" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>9205.8212999999996</v>
       </c>
       <c r="G488" s="1">
@@ -18273,7 +18273,7 @@
         <v>9401.2999999999993</v>
       </c>
       <c r="F489" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>8881.6212999999989</v>
       </c>
       <c r="G489" s="1">
@@ -18303,7 +18303,7 @@
         <v>36832.74</v>
       </c>
       <c r="F490" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>30026.800589999999</v>
       </c>
       <c r="G490" s="1">
@@ -18314,7 +18314,7 @@
         <v>6805.93941</v>
       </c>
       <c r="I490" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="491" spans="1:9" x14ac:dyDescent="0.25">
@@ -18335,7 +18335,7 @@
         <v>10169.98</v>
       </c>
       <c r="F491" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>8175.9401999999991</v>
       </c>
       <c r="G491" s="1">
@@ -18365,7 +18365,7 @@
         <v>12755.2</v>
       </c>
       <c r="F492" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>10062.535</v>
       </c>
       <c r="G492" s="1">
@@ -18395,7 +18395,7 @@
         <v>3274.08</v>
       </c>
       <c r="F493" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3189.4049999999997</v>
       </c>
       <c r="G493" s="1">
@@ -18425,7 +18425,7 @@
         <v>5152.3900000000003</v>
       </c>
       <c r="F494" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4876.9140000000007</v>
       </c>
       <c r="G494" s="1">
@@ -18455,7 +18455,7 @@
         <v>4981.03</v>
       </c>
       <c r="F495" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4705.5540000000001</v>
       </c>
       <c r="G495" s="1">
@@ -18472,7 +18472,7 @@
         <v>537</v>
       </c>
       <c r="B496" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C496" t="str">
         <f t="shared" si="7"/>
@@ -18485,7 +18485,7 @@
         <v>38369.269999999997</v>
       </c>
       <c r="F496" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>31054.332229999996</v>
       </c>
       <c r="G496" s="1">
@@ -18496,7 +18496,7 @@
         <v>7314.9377700000005</v>
       </c>
       <c r="I496" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="497" spans="1:9" x14ac:dyDescent="0.25">
@@ -18517,7 +18517,7 @@
         <v>14248.63</v>
       </c>
       <c r="F497" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>11340.438899999999</v>
       </c>
       <c r="G497" s="1">
@@ -18547,7 +18547,7 @@
         <v>3615</v>
       </c>
       <c r="F498" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3076.4670000000001</v>
       </c>
       <c r="G498" s="1">
@@ -18577,7 +18577,7 @@
         <v>11901.04</v>
       </c>
       <c r="F499" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>9404.8209999999999</v>
       </c>
       <c r="G499" s="1">
@@ -18607,7 +18607,7 @@
         <v>3110.37</v>
       </c>
       <c r="F500" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3029.92875</v>
       </c>
       <c r="G500" s="1">
@@ -18637,7 +18637,7 @@
         <v>12493.14</v>
       </c>
       <c r="F501" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>11825.5623</v>
       </c>
       <c r="G501" s="1">
@@ -18667,7 +18667,7 @@
         <v>12076.36</v>
       </c>
       <c r="F502" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>11408.782300000001</v>
       </c>
       <c r="G502" s="1">
@@ -18697,7 +18697,7 @@
         <v>6839.67</v>
       </c>
       <c r="F503" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5333.1888500000005</v>
       </c>
       <c r="G503" s="1">
@@ -18727,7 +18727,7 @@
         <v>1502.45</v>
       </c>
       <c r="F504" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1338.0676000000001</v>
       </c>
       <c r="G504" s="1">
@@ -18757,7 +18757,7 @@
         <v>7295.85</v>
       </c>
       <c r="F505" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5778.4740000000002</v>
       </c>
       <c r="G505" s="1">
@@ -18787,7 +18787,7 @@
         <v>26495.43</v>
       </c>
       <c r="F506" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>21101.417990000002</v>
       </c>
       <c r="G506" s="1">
@@ -18798,7 +18798,7 @@
         <v>5394.0120099999995</v>
       </c>
       <c r="I506" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="507" spans="1:9" x14ac:dyDescent="0.25">
@@ -18819,7 +18819,7 @@
         <v>2128.15</v>
       </c>
       <c r="F507" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2073.1112499999999</v>
       </c>
       <c r="G507" s="1">
@@ -18849,7 +18849,7 @@
         <v>10321.31</v>
       </c>
       <c r="F508" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>9763.8097999999991</v>
       </c>
       <c r="G508" s="1">
@@ -18879,7 +18879,7 @@
         <v>9973.3799999999992</v>
       </c>
       <c r="F509" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>9415.8797999999988</v>
       </c>
       <c r="G509" s="1">
@@ -18909,7 +18909,7 @@
         <v>34121.01</v>
       </c>
       <c r="F510" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>27837.210510000001</v>
       </c>
       <c r="G510" s="1">
@@ -18939,7 +18939,7 @@
         <v>8645.2099999999991</v>
       </c>
       <c r="F511" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7002.7972499999996</v>
       </c>
       <c r="G511" s="1">
@@ -18969,7 +18969,7 @@
         <v>2269.9499999999998</v>
       </c>
       <c r="F512" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1919.6212999999998</v>
       </c>
       <c r="G512" s="1">
@@ -18999,7 +18999,7 @@
         <v>8153.47</v>
       </c>
       <c r="F513" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6465.6149999999998</v>
       </c>
       <c r="G513" s="1">
@@ -19029,7 +19029,7 @@
         <v>2455.56</v>
       </c>
       <c r="F514" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2392.05375</v>
       </c>
       <c r="G514" s="1">
@@ -19059,7 +19059,7 @@
         <v>11257.25</v>
       </c>
       <c r="F515" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>10634.3807</v>
       </c>
       <c r="G515" s="1">
@@ -19089,7 +19089,7 @@
         <v>11646.03</v>
       </c>
       <c r="F516" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>11023.1607</v>
       </c>
       <c r="G516" s="1">
@@ -19119,7 +19119,7 @@
         <v>31836.05</v>
       </c>
       <c r="F517" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>25102.15208</v>
       </c>
       <c r="G517" s="1">
@@ -19130,7 +19130,7 @@
         <v>6733.8979200000003</v>
       </c>
       <c r="I517" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="518" spans="1:9" x14ac:dyDescent="0.25">
@@ -19151,7 +19151,7 @@
         <v>3113.68</v>
       </c>
       <c r="F518" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2629.9599499999999</v>
       </c>
       <c r="G518" s="1">
@@ -19180,7 +19180,7 @@
         <v>10513.25</v>
       </c>
       <c r="F519" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>8309.4419999999991</v>
       </c>
       <c r="G519" s="1">
@@ -19209,7 +19209,7 @@
         <v>2221.64</v>
       </c>
       <c r="F520" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2145.4324999999999</v>
       </c>
       <c r="G520" s="1">
@@ -19238,7 +19238,7 @@
         <v>10494.49</v>
       </c>
       <c r="F521" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>9936.9897999999994</v>
       </c>
       <c r="G521" s="1">
@@ -19267,7 +19267,7 @@
         <v>10146.56</v>
       </c>
       <c r="F522" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>9589.0597999999991</v>
       </c>
       <c r="G522" s="1">
@@ -19296,7 +19296,7 @@
         <v>33766.14</v>
       </c>
       <c r="F523" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>26649.782039999998</v>
       </c>
       <c r="G523" s="1">
@@ -19307,7 +19307,7 @@
         <v>7116.3579599999994</v>
       </c>
       <c r="I523" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="524" spans="1:9" x14ac:dyDescent="0.25">
@@ -19328,7 +19328,7 @@
         <v>8645.86</v>
       </c>
       <c r="F524" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6962.7468000000008</v>
       </c>
       <c r="G524" s="1">
@@ -19357,7 +19357,7 @@
         <v>2839.38</v>
       </c>
       <c r="F525" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2394.4411</v>
       </c>
       <c r="G525" s="1">
@@ -19386,7 +19386,7 @@
         <v>10984.51</v>
       </c>
       <c r="F526" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>8672.3179999999993</v>
       </c>
       <c r="G526" s="1">
@@ -19415,7 +19415,7 @@
         <v>3127.58</v>
       </c>
       <c r="F527" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3054.4207999999999</v>
       </c>
       <c r="G527" s="1">
@@ -19444,7 +19444,7 @@
         <v>11439.15</v>
       </c>
       <c r="F528" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>10826.6675</v>
       </c>
       <c r="G528" s="1">
@@ -19473,7 +19473,7 @@
         <v>11056.64</v>
       </c>
       <c r="F529" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>10444.157499999999</v>
       </c>
       <c r="G529" s="1">
@@ -19502,7 +19502,7 @@
         <v>11024.17</v>
       </c>
       <c r="F530" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>8736.0257000000001</v>
       </c>
       <c r="G530" s="1">
@@ -19531,7 +19531,7 @@
         <v>4202.3</v>
       </c>
       <c r="F531" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3552.2218000000003</v>
       </c>
       <c r="G531" s="1">
@@ -19560,7 +19560,7 @@
         <v>10395.43</v>
       </c>
       <c r="F532" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>8218.7180000000008</v>
       </c>
       <c r="G532" s="1">
@@ -19589,7 +19589,7 @@
         <v>38707.769999999997</v>
       </c>
       <c r="F533" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>31044.817979999996</v>
       </c>
       <c r="G533" s="1">
@@ -19600,7 +19600,7 @@
         <v>7662.9520199999997</v>
       </c>
       <c r="I533" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="534" spans="1:9" x14ac:dyDescent="0.25">
@@ -19621,7 +19621,7 @@
         <v>2946.67</v>
       </c>
       <c r="F534" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2870.4625000000001</v>
       </c>
       <c r="G534" s="1">
@@ -19651,7 +19651,7 @@
         <v>15400.03</v>
       </c>
       <c r="F535" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>14574.053600000001</v>
       </c>
       <c r="G535" s="1">
@@ -19681,7 +19681,7 @@
         <v>14884.71</v>
       </c>
       <c r="F536" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>14058.7336</v>
       </c>
       <c r="G536" s="1">
@@ -19711,7 +19711,7 @@
         <v>12721.56</v>
       </c>
       <c r="F537" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>9897.2536</v>
       </c>
       <c r="G537" s="1">
@@ -19741,7 +19741,7 @@
         <v>48956.59</v>
       </c>
       <c r="F538" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>39248.556089999998</v>
       </c>
       <c r="G538" s="1">
@@ -19771,7 +19771,7 @@
         <v>4606.16</v>
       </c>
       <c r="F539" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3928.3083999999999</v>
       </c>
       <c r="G539" s="1">
@@ -19801,7 +19801,7 @@
         <v>9806.35</v>
       </c>
       <c r="F540" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7765.1180000000004</v>
       </c>
       <c r="G540" s="1">
@@ -19831,7 +19831,7 @@
         <v>3127.58</v>
       </c>
       <c r="F541" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3054.4207999999999</v>
       </c>
       <c r="G541" s="1">
@@ -19861,7 +19861,7 @@
         <v>16310.08</v>
       </c>
       <c r="F542" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>15411.734699999999</v>
       </c>
       <c r="G542" s="1">
@@ -19891,7 +19891,7 @@
         <v>15749.93</v>
       </c>
       <c r="F543" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>14851.584699999999</v>
       </c>
       <c r="G543" s="1">
@@ -19921,7 +19921,7 @@
         <v>48920.43</v>
       </c>
       <c r="F544" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>39217.657229999997</v>
       </c>
       <c r="G544" s="1">
@@ -19932,7 +19932,7 @@
         <v>9702.7727699999996</v>
       </c>
       <c r="I544" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="545" spans="1:9" x14ac:dyDescent="0.25">
@@ -19953,7 +19953,7 @@
         <v>2082.06</v>
       </c>
       <c r="F545" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1780.9557</v>
       </c>
       <c r="G545" s="1">
@@ -19982,7 +19982,7 @@
         <v>2455.56</v>
       </c>
       <c r="F546" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2392.05375</v>
       </c>
       <c r="G546" s="1">
@@ -20011,7 +20011,7 @@
         <v>10820.39</v>
       </c>
       <c r="F547" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>10235.680899999999</v>
       </c>
       <c r="G547" s="1">
@@ -20040,7 +20040,7 @@
         <v>10454.4</v>
       </c>
       <c r="F548" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>9869.6908999999996</v>
       </c>
       <c r="G548" s="1">
@@ -20069,7 +20069,7 @@
         <v>33611.47</v>
       </c>
       <c r="F549" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>26697.677220000001</v>
       </c>
       <c r="G549" s="1">
@@ -20080,7 +20080,7 @@
         <v>6913.7927799999989</v>
       </c>
       <c r="I549" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="550" spans="1:9" x14ac:dyDescent="0.25">
@@ -20101,7 +20101,7 @@
         <v>9516.77</v>
       </c>
       <c r="F550" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7938.9360500000003</v>
       </c>
       <c r="G550" s="1">
@@ -20130,7 +20130,7 @@
         <v>2804.58</v>
       </c>
       <c r="F551" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2379.5679500000001</v>
       </c>
       <c r="G551" s="1">
@@ -20159,7 +20159,7 @@
         <v>10454.34</v>
       </c>
       <c r="F552" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>8264.08</v>
       </c>
       <c r="G552" s="1">
@@ -20188,7 +20188,7 @@
         <v>2782.96</v>
       </c>
       <c r="F553" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2710.9862499999999</v>
       </c>
       <c r="G553" s="1">
@@ -20217,7 +20217,7 @@
         <v>11585.4</v>
       </c>
       <c r="F554" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>10969.417599999999</v>
       </c>
       <c r="G554" s="1">
@@ -20246,7 +20246,7 @@
         <v>11200.91</v>
       </c>
       <c r="F555" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>10584.927599999999</v>
       </c>
       <c r="G555" s="1">
@@ -20275,7 +20275,7 @@
         <v>9352.36</v>
       </c>
       <c r="F556" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7656.4326500000006</v>
       </c>
       <c r="G556" s="1">
@@ -20304,7 +20304,7 @@
         <v>5485.6</v>
       </c>
       <c r="F557" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4319.3994500000008</v>
       </c>
       <c r="G557" s="1">
@@ -20333,7 +20333,7 @@
         <v>10307.07</v>
       </c>
       <c r="F558" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>8150.68</v>
       </c>
       <c r="G558" s="1">
@@ -20362,7 +20362,7 @@
         <v>34176.120000000003</v>
       </c>
       <c r="F559" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>27276.925190000002</v>
       </c>
       <c r="G559" s="1">
@@ -20373,7 +20373,7 @@
         <v>6899.1948100000009</v>
       </c>
       <c r="I559" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="560" spans="1:9" x14ac:dyDescent="0.25">
@@ -20394,7 +20394,7 @@
         <v>2782.96</v>
       </c>
       <c r="F560" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2710.9862499999999</v>
       </c>
       <c r="G560" s="1">
@@ -20423,7 +20423,7 @@
         <v>10706.5</v>
       </c>
       <c r="F561" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>10142.2258</v>
       </c>
       <c r="G561" s="1">
@@ -20452,7 +20452,7 @@
         <v>10353.98</v>
       </c>
       <c r="F562" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>9789.7057999999997</v>
       </c>
       <c r="G562" s="1">
@@ -20481,7 +20481,7 @@
         <v>120373.59</v>
       </c>
       <c r="F563" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>95645.215899999996</v>
       </c>
       <c r="G563" s="1">
@@ -20492,7 +20492,7 @@
         <v>24728.374100000005</v>
       </c>
       <c r="I563" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="564" spans="1:9" x14ac:dyDescent="0.25">
@@ -20513,7 +20513,7 @@
         <v>40297.910000000003</v>
       </c>
       <c r="F564" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>32559.518200000006</v>
       </c>
       <c r="G564" s="1">
@@ -20543,7 +20543,7 @@
         <v>5229.6899999999996</v>
       </c>
       <c r="F565" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4290.5877999999993</v>
       </c>
       <c r="G565" s="1">
@@ -20573,7 +20573,7 @@
         <v>38543.230000000003</v>
       </c>
       <c r="F566" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>31016.187000000005</v>
       </c>
       <c r="G566" s="1">
@@ -20603,7 +20603,7 @@
         <v>10149.629999999999</v>
       </c>
       <c r="F567" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>9887.1374999999989</v>
       </c>
       <c r="G567" s="1">
@@ -20633,7 +20633,7 @@
         <v>40046.36</v>
       </c>
       <c r="F568" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>37905.211499999998</v>
       </c>
       <c r="G568" s="1">
@@ -20663,7 +20663,7 @@
         <v>38712.19</v>
       </c>
       <c r="F569" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>36571.041499999999</v>
       </c>
       <c r="G569" s="1">
@@ -20693,7 +20693,7 @@
         <v>50816.99</v>
       </c>
       <c r="F570" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>40866.627529999998</v>
       </c>
       <c r="G570" s="1">
@@ -20723,7 +20723,7 @@
         <v>3209.03</v>
       </c>
       <c r="F571" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3098.9525000000003</v>
       </c>
       <c r="G571" s="1">
@@ -20753,7 +20753,7 @@
         <v>9164.89</v>
       </c>
       <c r="F572" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>8607.0510999999988</v>
       </c>
       <c r="G572" s="1">
@@ -20783,7 +20783,7 @@
         <v>8817.89</v>
       </c>
       <c r="F573" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>8260.0510999999988</v>
       </c>
       <c r="G573" s="1">
@@ -20813,7 +20813,7 @@
         <v>10462.4</v>
       </c>
       <c r="F574" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>8365.9034499999998</v>
       </c>
       <c r="G574" s="1">
@@ -20843,7 +20843,7 @@
         <v>8563.51</v>
       </c>
       <c r="F575" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6720.982</v>
       </c>
       <c r="G575" s="1">
@@ -20873,7 +20873,7 @@
         <v>31985.29</v>
       </c>
       <c r="F576" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>25550.215800000002</v>
       </c>
       <c r="G576" s="1">
@@ -20884,7 +20884,7 @@
         <v>6435.0742</v>
       </c>
       <c r="I576" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="577" spans="1:9" x14ac:dyDescent="0.25">
@@ -20905,7 +20905,7 @@
         <v>2432.56</v>
       </c>
       <c r="F577" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2375.6583999999998</v>
       </c>
       <c r="G577" s="1">
@@ -20934,7 +20934,7 @@
         <v>6632.71</v>
       </c>
       <c r="F578" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6274.5911999999998</v>
       </c>
       <c r="G578" s="1">
@@ -20963,7 +20963,7 @@
         <v>6409.94</v>
       </c>
       <c r="F579" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6051.8211999999994</v>
       </c>
       <c r="G579" s="1">
@@ -20979,7 +20979,7 @@
         <v>243</v>
       </c>
       <c r="B580" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C580" t="str">
         <f t="shared" si="9"/>
@@ -20992,7 +20992,7 @@
         <v>22902.43</v>
       </c>
       <c r="F580" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>18152.410879999999</v>
       </c>
       <c r="G580" s="1">
@@ -21021,7 +21021,7 @@
         <v>6555.54</v>
       </c>
       <c r="F581" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5218.2394999999997</v>
       </c>
       <c r="G581" s="1">
@@ -21050,7 +21050,7 @@
         <v>1800.74</v>
       </c>
       <c r="F582" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1754.16875</v>
       </c>
       <c r="G582" s="1">
@@ -21079,7 +21079,7 @@
         <v>4865.3100000000004</v>
       </c>
       <c r="F583" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4569.1733000000004</v>
       </c>
       <c r="G583" s="1">
@@ -21108,7 +21108,7 @@
         <v>4681.1099999999997</v>
       </c>
       <c r="F584" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4384.9732999999997</v>
       </c>
       <c r="G584" s="1">
@@ -21137,7 +21137,7 @@
         <v>28377.55</v>
       </c>
       <c r="F585" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>22518.062579999998</v>
       </c>
       <c r="G585" s="1">
@@ -21148,7 +21148,7 @@
         <v>5859.4874199999995</v>
       </c>
       <c r="I585" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="586" spans="1:9" x14ac:dyDescent="0.25">
@@ -21169,7 +21169,7 @@
         <v>16333.87</v>
       </c>
       <c r="F586" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>13268.465650000002</v>
       </c>
       <c r="G586" s="1">
@@ -21198,7 +21198,7 @@
         <v>1988.9</v>
       </c>
       <c r="F587" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1638.2326</v>
       </c>
       <c r="G587" s="1">
@@ -21227,7 +21227,7 @@
         <v>9665.76</v>
       </c>
       <c r="F588" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7671.9459999999999</v>
       </c>
       <c r="G588" s="1">
@@ -21256,7 +21256,7 @@
         <v>2085.0500000000002</v>
       </c>
       <c r="F589" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2036.2772000000002</v>
       </c>
       <c r="G589" s="1">
@@ -21285,7 +21285,7 @@
         <v>7128.25</v>
       </c>
       <c r="F590" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6694.3752999999997</v>
       </c>
       <c r="G590" s="1">
@@ -21314,7 +21314,7 @@
         <v>6858.37</v>
       </c>
       <c r="F591" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6424.4952999999996</v>
       </c>
       <c r="G591" s="1">
@@ -21330,7 +21330,7 @@
         <v>564</v>
       </c>
       <c r="B592" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C592" t="str">
         <f t="shared" si="9"/>
@@ -21343,7 +21343,7 @@
         <v>22274.79</v>
       </c>
       <c r="F592" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>17028.24797</v>
       </c>
       <c r="G592" s="1">
@@ -21372,7 +21372,7 @@
         <v>2782.96</v>
       </c>
       <c r="F593" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2710.9862499999999</v>
       </c>
       <c r="G593" s="1">
@@ -21401,7 +21401,7 @@
         <v>2632.18</v>
       </c>
       <c r="F594" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2040.7646399999999</v>
       </c>
       <c r="G594" s="1">
@@ -21430,7 +21430,7 @@
         <v>1489.01</v>
       </c>
       <c r="F595" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1396.2062000000001</v>
       </c>
       <c r="G595" s="1">
@@ -21459,7 +21459,7 @@
         <v>63649.81</v>
       </c>
       <c r="F596" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>49885.685529999995</v>
       </c>
       <c r="G596" s="1">
@@ -21470,7 +21470,7 @@
         <v>13764.124470000001</v>
       </c>
       <c r="I596" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="597" spans="1:9" x14ac:dyDescent="0.25">
@@ -21491,7 +21491,7 @@
         <v>18588.189999999999</v>
       </c>
       <c r="F597" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>14417.099499999998</v>
       </c>
       <c r="G597" s="1">
@@ -21521,7 +21521,7 @@
         <v>2946.67</v>
       </c>
       <c r="F598" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2870.4625000000001</v>
       </c>
       <c r="G598" s="1">
@@ -21551,7 +21551,7 @@
         <v>8928.2900000000009</v>
       </c>
       <c r="F599" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>8388.0635000000002</v>
       </c>
       <c r="G599" s="1">
@@ -21581,7 +21581,7 @@
         <v>8590.92</v>
       </c>
       <c r="F600" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>8050.6935000000003</v>
       </c>
       <c r="G600" s="1">
@@ -21611,7 +21611,7 @@
         <v>11557.95</v>
       </c>
       <c r="F601" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>9221.3490200000015</v>
       </c>
       <c r="G601" s="1">
@@ -21641,7 +21641,7 @@
         <v>2317.12</v>
       </c>
       <c r="F602" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1849.43175</v>
       </c>
       <c r="G602" s="1">
@@ -21671,7 +21671,7 @@
         <v>1309.6300000000001</v>
       </c>
       <c r="F603" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1275.7600000000002</v>
       </c>
       <c r="G603" s="1">
@@ -21701,7 +21701,7 @@
         <v>4227.97</v>
       </c>
       <c r="F604" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4011.2020000000002</v>
       </c>
       <c r="G604" s="1">
@@ -21731,7 +21731,7 @@
         <v>4092.57</v>
       </c>
       <c r="F605" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3875.8020000000001</v>
       </c>
       <c r="G605" s="1">
@@ -21761,7 +21761,7 @@
         <v>2431.33</v>
       </c>
       <c r="F606" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1936.2635</v>
       </c>
       <c r="G606" s="1">
@@ -21791,7 +21791,7 @@
         <v>15976.57</v>
       </c>
       <c r="F607" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>12855.47208</v>
       </c>
       <c r="G607" s="1">
@@ -21802,7 +21802,7 @@
         <v>3121.0979199999997</v>
       </c>
       <c r="I607" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="608" spans="1:9" x14ac:dyDescent="0.25">
@@ -21823,7 +21823,7 @@
         <v>2004.21</v>
       </c>
       <c r="F608" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1595.1732999999999</v>
       </c>
       <c r="G608" s="1">
@@ -21852,7 +21852,7 @@
         <v>1914.47</v>
       </c>
       <c r="F609" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1631.6555000000001</v>
       </c>
       <c r="G609" s="1">
@@ -21881,7 +21881,7 @@
         <v>5206.43</v>
       </c>
       <c r="F610" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4079.1235000000001</v>
       </c>
       <c r="G610" s="1">
@@ -21910,7 +21910,7 @@
         <v>1309.6300000000001</v>
       </c>
       <c r="F611" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1275.7600000000002</v>
       </c>
       <c r="G611" s="1">
@@ -21939,7 +21939,7 @@
         <v>4565.53</v>
       </c>
       <c r="F612" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4290.3926999999994</v>
       </c>
       <c r="G612" s="1">
@@ -21968,7 +21968,7 @@
         <v>4393.2299999999996</v>
       </c>
       <c r="F613" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4118.0926999999992</v>
       </c>
       <c r="G613" s="1">
@@ -21997,7 +21997,7 @@
         <v>61014.82</v>
       </c>
       <c r="F614" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>47115.362300000001</v>
       </c>
       <c r="G614" s="1">
@@ -22026,7 +22026,7 @@
         <v>30317.14</v>
       </c>
       <c r="F615" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>23717.006000000001</v>
       </c>
       <c r="G615" s="1">
@@ -22055,7 +22055,7 @@
         <v>8348.89</v>
       </c>
       <c r="F616" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>8132.9687499999991</v>
       </c>
       <c r="G616" s="1">
@@ -22084,7 +22084,7 @@
         <v>12851.67</v>
       </c>
       <c r="F617" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>12074.014800000001</v>
       </c>
       <c r="G617" s="1">
@@ -22113,7 +22113,7 @@
         <v>12366.05</v>
       </c>
       <c r="F618" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>11588.3948</v>
       </c>
       <c r="G618" s="1">
@@ -22142,7 +22142,7 @@
         <v>131959.10999999999</v>
       </c>
       <c r="F619" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>107048.32336999998</v>
       </c>
       <c r="G619" s="1">
@@ -22171,7 +22171,7 @@
         <v>9039.92</v>
       </c>
       <c r="F620" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7417.7728000000006</v>
       </c>
       <c r="G620" s="1">
@@ -22200,7 +22200,7 @@
         <v>20642.73</v>
       </c>
       <c r="F621" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>16149.31</v>
       </c>
       <c r="G621" s="1">
@@ -22229,7 +22229,7 @@
         <v>6057.04</v>
       </c>
       <c r="F622" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5900.3912499999997</v>
       </c>
       <c r="G622" s="1">
@@ -22258,7 +22258,7 @@
         <v>25500.6</v>
       </c>
       <c r="F623" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>23955.3377</v>
       </c>
       <c r="G623" s="1">
@@ -22287,7 +22287,7 @@
         <v>24536.53</v>
       </c>
       <c r="F624" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>22991.2677</v>
       </c>
       <c r="G624" s="1">
@@ -22303,7 +22303,7 @@
         <v>405</v>
       </c>
       <c r="B625" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C625" t="str">
         <f t="shared" si="9"/>
@@ -22316,7 +22316,7 @@
         <v>29545.19</v>
       </c>
       <c r="F625" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>23192.90537</v>
       </c>
       <c r="G625" s="1">
@@ -22345,7 +22345,7 @@
         <v>15436.96</v>
       </c>
       <c r="F626" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>11897.87241</v>
       </c>
       <c r="G626" s="1">
@@ -22356,7 +22356,7 @@
         <v>3539.0875900000001</v>
       </c>
       <c r="I626" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="627" spans="1:9" x14ac:dyDescent="0.25">
@@ -22377,7 +22377,7 @@
         <v>1003.5</v>
       </c>
       <c r="F627" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>868.92319999999995</v>
       </c>
       <c r="G627" s="1">
@@ -22407,7 +22407,7 @@
         <v>2926.31</v>
       </c>
       <c r="F628" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2333.585</v>
       </c>
       <c r="G628" s="1">
@@ -22437,7 +22437,7 @@
         <v>1390.04</v>
       </c>
       <c r="F629" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1357.5247999999999</v>
       </c>
       <c r="G629" s="1">
@@ -22467,7 +22467,7 @@
         <v>4300.4799999999996</v>
       </c>
       <c r="F630" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4042.8421999999996</v>
       </c>
       <c r="G630" s="1">
@@ -22497,7 +22497,7 @@
         <v>4154.21</v>
       </c>
       <c r="F631" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3896.5722000000001</v>
       </c>
       <c r="G631" s="1">
@@ -22527,7 +22527,7 @@
         <v>6831.36</v>
       </c>
       <c r="F632" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6422.4362000000001</v>
       </c>
       <c r="G632" s="1">
@@ -22557,7 +22557,7 @@
         <v>53333.4</v>
       </c>
       <c r="F633" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>40693.590179999999</v>
       </c>
       <c r="G633" s="1">
@@ -22587,7 +22587,7 @@
         <v>6870.63</v>
       </c>
       <c r="F634" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5375.2695000000003</v>
       </c>
       <c r="G634" s="1">
@@ -22617,7 +22617,7 @@
         <v>2291.85</v>
       </c>
       <c r="F635" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2232.5774999999999</v>
       </c>
       <c r="G635" s="1">
@@ -22647,7 +22647,7 @@
         <v>6574.15</v>
       </c>
       <c r="F636" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6165.2262000000001</v>
       </c>
       <c r="G636" s="1">
@@ -22677,7 +22677,7 @@
         <v>29096.41</v>
       </c>
       <c r="F637" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>22783.719400000002</v>
       </c>
       <c r="G637" s="1">
@@ -22707,7 +22707,7 @@
         <v>8242.61</v>
       </c>
       <c r="F638" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6729.1855000000005</v>
       </c>
       <c r="G638" s="1">
@@ -22737,7 +22737,7 @@
         <v>1324.34</v>
       </c>
       <c r="F639" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1099.8948</v>
       </c>
       <c r="G639" s="1">
@@ -22767,7 +22767,7 @@
         <v>9776.3799999999992</v>
       </c>
       <c r="F640" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7877.6277999999993</v>
       </c>
       <c r="G640" s="1">
@@ -22797,7 +22797,7 @@
         <v>2455.56</v>
       </c>
       <c r="F641" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2392.05375</v>
       </c>
       <c r="G641" s="1">
@@ -22827,7 +22827,7 @@
         <v>7317.79</v>
       </c>
       <c r="F642" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6873.7542999999996</v>
       </c>
       <c r="G642" s="1">
@@ -22857,7 +22857,7 @@
         <v>7041.03</v>
       </c>
       <c r="F643" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6596.9942999999994</v>
       </c>
       <c r="G643" s="1">
@@ -22887,7 +22887,7 @@
         <v>9400.83</v>
       </c>
       <c r="F644" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7506.7631499999998</v>
       </c>
       <c r="G644" s="1">
@@ -22898,7 +22898,7 @@
         <v>1894.0668500000002</v>
       </c>
       <c r="I644" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="645" spans="1:9" x14ac:dyDescent="0.25">
@@ -22919,7 +22919,7 @@
         <v>1946.81</v>
       </c>
       <c r="F645" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1542.68445</v>
       </c>
       <c r="G645" s="1">
@@ -22948,7 +22948,7 @@
         <v>829.75</v>
       </c>
       <c r="F646" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>699.23760000000004</v>
       </c>
       <c r="G646" s="1">
@@ -22977,7 +22977,7 @@
         <v>2245.41</v>
       </c>
       <c r="F647" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1782.52</v>
       </c>
       <c r="G647" s="1">
@@ -23006,7 +23006,7 @@
         <v>818.52</v>
       </c>
       <c r="F648" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>797.35124999999994</v>
       </c>
       <c r="G648" s="1">
@@ -23035,7 +23035,7 @@
         <v>4639.34</v>
       </c>
       <c r="F649" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4398.5243</v>
       </c>
       <c r="G649" s="1">
@@ -23064,7 +23064,7 @@
         <v>4488.79</v>
       </c>
       <c r="F650" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4247.9742999999999</v>
       </c>
       <c r="G650" s="1">
@@ -23080,7 +23080,7 @@
         <v>1215</v>
       </c>
       <c r="B651" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C651" t="str">
         <f t="shared" si="10"/>
@@ -23093,7 +23093,7 @@
         <v>0</v>
       </c>
       <c r="F651" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>0</v>
       </c>
       <c r="G651" s="1">
@@ -23122,7 +23122,7 @@
         <v>2533.29</v>
       </c>
       <c r="F652" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2001.24875</v>
       </c>
       <c r="G652" s="1">
@@ -23151,7 +23151,7 @@
         <v>1345.05</v>
       </c>
       <c r="F653" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1156.8456999999999</v>
       </c>
       <c r="G653" s="1">
@@ -23180,7 +23180,7 @@
         <v>5436.81</v>
       </c>
       <c r="F654" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4320.2290000000003</v>
       </c>
       <c r="G654" s="1">
@@ -23209,7 +23209,7 @@
         <v>16837.25</v>
       </c>
       <c r="F655" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>13353.280189999999</v>
       </c>
       <c r="G655" s="1">
@@ -23220,7 +23220,7 @@
         <v>3483.9698100000001</v>
       </c>
       <c r="I655" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="656" spans="1:9" x14ac:dyDescent="0.25">
@@ -23241,7 +23241,7 @@
         <v>1473.33</v>
       </c>
       <c r="F656" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1435.2262499999999</v>
       </c>
       <c r="G656" s="1">
@@ -23270,7 +23270,7 @@
         <v>5218.3</v>
       </c>
       <c r="F657" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4943.1626999999999</v>
       </c>
       <c r="G657" s="1">
@@ -23299,7 +23299,7 @@
         <v>5046</v>
       </c>
       <c r="F658" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4770.8626999999997</v>
       </c>
       <c r="G658" s="1">
@@ -23328,7 +23328,7 @@
         <v>3072.01</v>
       </c>
       <c r="F659" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2495.2603500000005</v>
       </c>
       <c r="G659" s="1">
@@ -23357,7 +23357,7 @@
         <v>2837.95</v>
       </c>
       <c r="F660" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2265.5469999999996</v>
       </c>
       <c r="G660" s="1">
@@ -23386,7 +23386,7 @@
         <v>13647.39</v>
       </c>
       <c r="F661" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>11064.294449999999</v>
       </c>
       <c r="G661" s="1">
@@ -23397,7 +23397,7 @@
         <v>2583.09555</v>
       </c>
       <c r="I661" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="662" spans="1:9" x14ac:dyDescent="0.25">
@@ -23418,7 +23418,7 @@
         <v>1145.93</v>
       </c>
       <c r="F662" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1116.29375</v>
       </c>
       <c r="G662" s="1">
@@ -23448,7 +23448,7 @@
         <v>5361.34</v>
       </c>
       <c r="F663" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5072.3159999999998</v>
       </c>
       <c r="G663" s="1">
@@ -23478,7 +23478,7 @@
         <v>5180.8</v>
       </c>
       <c r="F664" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4891.7759999999998</v>
       </c>
       <c r="G664" s="1">
@@ -23508,7 +23508,7 @@
         <v>33893.01</v>
       </c>
       <c r="F665" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>26681.364440000001</v>
       </c>
       <c r="G665" s="1">
@@ -23538,7 +23538,7 @@
         <v>9670.59</v>
       </c>
       <c r="F666" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7071.4626499999995</v>
       </c>
       <c r="G666" s="1">
@@ -23568,7 +23568,7 @@
         <v>1774.15</v>
       </c>
       <c r="F667" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1419.644</v>
       </c>
       <c r="G667" s="1">
@@ -23598,7 +23598,7 @@
         <v>2455.56</v>
       </c>
       <c r="F668" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2392.05375</v>
       </c>
       <c r="G668" s="1">
@@ -23628,7 +23628,7 @@
         <v>6043.45</v>
       </c>
       <c r="F669" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5723.4913999999999</v>
       </c>
       <c r="G669" s="1">
@@ -23658,7 +23658,7 @@
         <v>5843.47</v>
       </c>
       <c r="F670" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5523.5114000000003</v>
       </c>
       <c r="G670" s="1">
@@ -23675,7 +23675,7 @@
         <v>136</v>
       </c>
       <c r="B671" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C671" t="str">
         <f t="shared" si="10"/>
@@ -23688,7 +23688,7 @@
         <v>38880.339999999997</v>
       </c>
       <c r="F671" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>31665.442919999994</v>
       </c>
       <c r="G671" s="1">
@@ -23718,7 +23718,7 @@
         <v>2782.96</v>
       </c>
       <c r="F672" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2710.9862499999999</v>
       </c>
       <c r="G672" s="1">
@@ -23748,7 +23748,7 @@
         <v>10995.14</v>
       </c>
       <c r="F673" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>10406.5923</v>
       </c>
       <c r="G673" s="1">
@@ -23778,7 +23778,7 @@
         <v>10628.09</v>
       </c>
       <c r="F674" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>10039.542300000001</v>
       </c>
       <c r="G674" s="1">
@@ -23808,7 +23808,7 @@
         <v>22616.18</v>
       </c>
       <c r="F675" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>17851.461299999999</v>
       </c>
       <c r="G675" s="1">
@@ -23819,7 +23819,7 @@
         <v>4764.7187000000004</v>
       </c>
       <c r="I675" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="676" spans="1:9" x14ac:dyDescent="0.25">
@@ -23840,7 +23840,7 @@
         <v>1859.1</v>
       </c>
       <c r="F676" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1471.9658999999999</v>
       </c>
       <c r="G676" s="1">
@@ -23869,7 +23869,7 @@
         <v>2174.8000000000002</v>
       </c>
       <c r="F677" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1856.0833000000002</v>
       </c>
       <c r="G677" s="1">
@@ -23898,7 +23898,7 @@
         <v>6290.97</v>
       </c>
       <c r="F678" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4977.9430000000002</v>
       </c>
       <c r="G678" s="1">
@@ -23927,7 +23927,7 @@
         <v>1637.04</v>
       </c>
       <c r="F679" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1594.7024999999999</v>
       </c>
       <c r="G679" s="1">
@@ -23956,7 +23956,7 @@
         <v>6662.95</v>
       </c>
       <c r="F680" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6298.2829999999994</v>
       </c>
       <c r="G680" s="1">
@@ -23985,7 +23985,7 @@
         <v>6434.97</v>
       </c>
       <c r="F681" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6070.3029999999999</v>
       </c>
       <c r="G681" s="1">
@@ -24014,7 +24014,7 @@
         <v>13527.07</v>
       </c>
       <c r="F682" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>10741.251209999999</v>
       </c>
       <c r="G682" s="1">
@@ -24025,7 +24025,7 @@
         <v>2785.8187900000003</v>
       </c>
       <c r="I682" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="683" spans="1:9" x14ac:dyDescent="0.25">
@@ -24046,7 +24046,7 @@
         <v>1209.82</v>
       </c>
       <c r="F683" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1033.9782499999999</v>
       </c>
       <c r="G683" s="1">
@@ -24075,7 +24075,7 @@
         <v>1424.15</v>
       </c>
       <c r="F684" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1176.8990000000001</v>
       </c>
       <c r="G684" s="1">
@@ -24104,7 +24104,7 @@
         <v>1473.33</v>
       </c>
       <c r="F685" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1435.2262499999999</v>
       </c>
       <c r="G685" s="1">
@@ -24133,7 +24133,7 @@
         <v>4892.4799999999996</v>
       </c>
       <c r="F686" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4624.1166999999996</v>
       </c>
       <c r="G686" s="1">
@@ -24162,7 +24162,7 @@
         <v>4724.78</v>
       </c>
       <c r="F687" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4456.4166999999998</v>
       </c>
       <c r="G687" s="1">
@@ -24191,7 +24191,7 @@
         <v>20652.68</v>
       </c>
       <c r="F688" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>16597.60554</v>
       </c>
       <c r="G688" s="1">
@@ -24202,7 +24202,7 @@
         <v>4055.0744599999998</v>
       </c>
       <c r="I688" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="689" spans="1:9" x14ac:dyDescent="0.25">
@@ -24223,7 +24223,7 @@
         <v>3309.21</v>
       </c>
       <c r="F689" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2628.4229999999998</v>
       </c>
       <c r="G689" s="1">
@@ -24252,7 +24252,7 @@
         <v>1563.79</v>
       </c>
       <c r="F690" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1527.2103999999999</v>
       </c>
       <c r="G690" s="1">
@@ -24281,7 +24281,7 @@
         <v>9263.02</v>
       </c>
       <c r="F691" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>8760.7278999999999</v>
       </c>
       <c r="G691" s="1">
@@ -24310,7 +24310,7 @@
         <v>8949.0499999999993</v>
       </c>
       <c r="F692" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>8446.7578999999987</v>
       </c>
       <c r="G692" s="1">
@@ -24339,7 +24339,7 @@
         <v>10985.63</v>
       </c>
       <c r="F693" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>8943.5060899999989</v>
       </c>
       <c r="G693" s="1">
@@ -24350,7 +24350,7 @@
         <v>2042.1239099999998</v>
       </c>
       <c r="I693" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="694" spans="1:9" x14ac:dyDescent="0.25">
@@ -24371,7 +24371,7 @@
         <v>1715.24</v>
       </c>
       <c r="F694" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1374.2820000000002</v>
       </c>
       <c r="G694" s="1">
@@ -24400,7 +24400,7 @@
         <v>818.52</v>
       </c>
       <c r="F695" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>797.35124999999994</v>
       </c>
       <c r="G695" s="1">
@@ -24429,7 +24429,7 @@
         <v>4030.42</v>
       </c>
       <c r="F696" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3810.2649999999999</v>
       </c>
       <c r="G696" s="1">
@@ -24458,7 +24458,7 @@
         <v>3892.72</v>
       </c>
       <c r="F697" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3672.5649999999996</v>
       </c>
       <c r="G697" s="1">
@@ -24487,7 +24487,7 @@
         <v>4881.6499999999996</v>
       </c>
       <c r="F698" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3842.1796999999997</v>
       </c>
       <c r="G698" s="1">
@@ -24517,7 +24517,7 @@
         <v>38581.730000000003</v>
       </c>
       <c r="F699" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>31175.851280000003</v>
       </c>
       <c r="G699" s="1">
@@ -24528,7 +24528,7 @@
         <v>7405.8787200000006</v>
       </c>
       <c r="I699" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="700" spans="1:9" x14ac:dyDescent="0.25">
@@ -24549,7 +24549,7 @@
         <v>2845.34</v>
       </c>
       <c r="F700" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2445.8998000000001</v>
       </c>
       <c r="G700" s="1">
@@ -24579,7 +24579,7 @@
         <v>2992.12</v>
       </c>
       <c r="F701" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2437.7809999999999</v>
       </c>
       <c r="G701" s="1">
@@ -24609,7 +24609,7 @@
         <v>2606.3200000000002</v>
       </c>
       <c r="F702" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2545.3540000000003</v>
       </c>
       <c r="G702" s="1">
@@ -24639,7 +24639,7 @@
         <v>13299.38</v>
       </c>
       <c r="F703" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>12552.546499999999</v>
       </c>
       <c r="G703" s="1">
@@ -24669,7 +24669,7 @@
         <v>12833.49</v>
       </c>
       <c r="F704" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>12086.656499999999</v>
       </c>
       <c r="G704" s="1">
@@ -24699,7 +24699,7 @@
         <v>39307.589999999997</v>
       </c>
       <c r="F705" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>31526.680059999999</v>
       </c>
       <c r="G705" s="1">
@@ -24729,7 +24729,7 @@
         <v>2432.56</v>
       </c>
       <c r="F706" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2375.6583999999998</v>
       </c>
       <c r="G706" s="1">
@@ -24759,7 +24759,7 @@
         <v>8917.2099999999991</v>
       </c>
       <c r="F707" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>8380.7091999999993</v>
       </c>
       <c r="G707" s="1">
@@ -24789,7 +24789,7 @@
         <v>8618.7000000000007</v>
       </c>
       <c r="F708" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>8082.1992000000009</v>
       </c>
       <c r="G708" s="1">
@@ -24819,7 +24819,7 @@
         <v>16809.55</v>
       </c>
       <c r="F709" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>13192.640439999999</v>
       </c>
       <c r="G709" s="1">
@@ -24830,7 +24830,7 @@
         <v>3616.9095600000001</v>
       </c>
       <c r="I709" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="710" spans="1:9" x14ac:dyDescent="0.25">
@@ -24851,7 +24851,7 @@
         <v>5168.2700000000004</v>
       </c>
       <c r="F710" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4086.6880000000006</v>
       </c>
       <c r="G710" s="1">
@@ -24880,7 +24880,7 @@
         <v>1110.82</v>
       </c>
       <c r="F711" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1074.2403999999999</v>
       </c>
       <c r="G711" s="1">
@@ -24909,7 +24909,7 @@
         <v>4565.53</v>
       </c>
       <c r="F712" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4290.3926999999994</v>
       </c>
       <c r="G712" s="1">
@@ -24938,7 +24938,7 @@
         <v>4393.2299999999996</v>
       </c>
       <c r="F713" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4118.0926999999992</v>
       </c>
       <c r="G713" s="1">
@@ -24967,7 +24967,7 @@
         <v>1821.74</v>
       </c>
       <c r="F714" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1556.5379</v>
       </c>
       <c r="G714" s="1">
@@ -24996,7 +24996,7 @@
         <v>1145.93</v>
       </c>
       <c r="F715" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1116.29375</v>
       </c>
       <c r="G715" s="1">
@@ -25025,7 +25025,7 @@
         <v>2834.49</v>
       </c>
       <c r="F716" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2236.12</v>
       </c>
       <c r="G716" s="1">
@@ -25054,7 +25054,7 @@
         <v>18392.38</v>
       </c>
       <c r="F717" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>14754.211370000001</v>
       </c>
       <c r="G717" s="1">
@@ -25065,7 +25065,7 @@
         <v>3638.1686300000001</v>
       </c>
       <c r="I717" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="718" spans="1:9" x14ac:dyDescent="0.25">
@@ -25086,7 +25086,7 @@
         <v>7730.65</v>
       </c>
       <c r="F718" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7317.6617999999999</v>
       </c>
       <c r="G718" s="1">
@@ -25115,7 +25115,7 @@
         <v>7473</v>
       </c>
       <c r="F719" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7060.0118000000002</v>
       </c>
       <c r="G719" s="1">
@@ -25144,7 +25144,7 @@
         <v>13838.8</v>
       </c>
       <c r="F720" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>11513.22935</v>
       </c>
       <c r="G720" s="1">
@@ -25155,7 +25155,7 @@
         <v>2325.5706500000001</v>
       </c>
       <c r="I720" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="721" spans="1:9" x14ac:dyDescent="0.25">
@@ -25176,7 +25176,7 @@
         <v>3099.76</v>
       </c>
       <c r="F721" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2519.1717500000004</v>
       </c>
       <c r="G721" s="1">
@@ -25205,7 +25205,7 @@
         <v>1345.05</v>
       </c>
       <c r="F722" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1156.8456999999999</v>
       </c>
       <c r="G722" s="1">
@@ -25234,7 +25234,7 @@
         <v>1191.07</v>
       </c>
       <c r="F723" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>965.27</v>
       </c>
       <c r="G723" s="1">
@@ -25263,7 +25263,7 @@
         <v>818.52</v>
       </c>
       <c r="F724" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>797.35124999999994</v>
       </c>
       <c r="G724" s="1">
@@ -25292,7 +25292,7 @@
         <v>7443.07</v>
       </c>
       <c r="F725" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7043.8555999999999</v>
       </c>
       <c r="G725" s="1">
@@ -25321,7 +25321,7 @@
         <v>7193.99</v>
       </c>
       <c r="F726" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6794.7755999999999</v>
       </c>
       <c r="G726" s="1">
@@ -25350,7 +25350,7 @@
         <v>2272.5</v>
       </c>
       <c r="F727" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1832.9238499999999</v>
       </c>
       <c r="G727" s="1">
@@ -25379,7 +25379,7 @@
         <v>1345.05</v>
       </c>
       <c r="F728" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1156.8456999999999</v>
       </c>
       <c r="G728" s="1">
@@ -25408,7 +25408,7 @@
         <v>1328.88</v>
       </c>
       <c r="F729" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1050.0170000000001</v>
       </c>
       <c r="G729" s="1">
@@ -25437,7 +25437,7 @@
         <v>11740.19</v>
       </c>
       <c r="F730" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>9366.919100000001</v>
       </c>
       <c r="G730" s="1">
@@ -25448,7 +25448,7 @@
         <v>2373.2709</v>
       </c>
       <c r="I730" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="731" spans="1:9" x14ac:dyDescent="0.25">
@@ -25469,7 +25469,7 @@
         <v>868.77</v>
       </c>
       <c r="F731" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>848.44799999999998</v>
       </c>
       <c r="G731" s="1">
@@ -25499,7 +25499,7 @@
         <v>6269.73</v>
       </c>
       <c r="F732" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5935.9975999999997</v>
       </c>
       <c r="G732" s="1">
@@ -25529,7 +25529,7 @@
         <v>6061.19</v>
       </c>
       <c r="F733" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5727.4575999999997</v>
       </c>
       <c r="G733" s="1">
@@ -25559,7 +25559,7 @@
         <v>28515.61</v>
       </c>
       <c r="F734" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>22446.964039999999</v>
       </c>
       <c r="G734" s="1">
@@ -25570,7 +25570,7 @@
         <v>6068.6459599999998</v>
       </c>
       <c r="I734" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="735" spans="1:9" x14ac:dyDescent="0.25">
@@ -25591,7 +25591,7 @@
         <v>7720.64</v>
       </c>
       <c r="F735" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6252.0367999999999</v>
       </c>
       <c r="G735" s="1">
@@ -25620,7 +25620,7 @@
         <v>3970.47</v>
       </c>
       <c r="F736" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3364.4227999999998</v>
       </c>
       <c r="G736" s="1">
@@ -25649,7 +25649,7 @@
         <v>4932.63</v>
       </c>
       <c r="F737" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3905.24</v>
       </c>
       <c r="G737" s="1">
@@ -25678,7 +25678,7 @@
         <v>1309.6300000000001</v>
       </c>
       <c r="F738" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1275.7600000000002</v>
       </c>
       <c r="G738" s="1">
@@ -25707,7 +25707,7 @@
         <v>10442.790000000001</v>
       </c>
       <c r="F739" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>9892.4025000000001</v>
       </c>
       <c r="G739" s="1">
@@ -25736,7 +25736,7 @@
         <v>10098.530000000001</v>
       </c>
       <c r="F740" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>9548.1424999999999</v>
       </c>
       <c r="G740" s="1">
@@ -25765,7 +25765,7 @@
         <v>25470.06</v>
       </c>
       <c r="F741" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>20504.955090000003</v>
       </c>
       <c r="G741" s="1">
@@ -25794,7 +25794,7 @@
         <v>4490.82</v>
       </c>
       <c r="F742" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3565.04</v>
       </c>
       <c r="G742" s="1">
@@ -25823,7 +25823,7 @@
         <v>1473.33</v>
       </c>
       <c r="F743" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1435.2262499999999</v>
       </c>
       <c r="G743" s="1">
@@ -25852,7 +25852,7 @@
         <v>5954.17</v>
       </c>
       <c r="F744" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5637.8242</v>
       </c>
       <c r="G744" s="1">
@@ -25881,7 +25881,7 @@
         <v>5755.87</v>
       </c>
       <c r="F745" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5439.5241999999998</v>
       </c>
       <c r="G745" s="1">
@@ -25910,7 +25910,7 @@
         <v>2957.5</v>
       </c>
       <c r="F746" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2400.3384999999998</v>
       </c>
       <c r="G746" s="1">
@@ -25939,7 +25939,7 @@
         <v>1034.3399999999999</v>
       </c>
       <c r="F747" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>823.21699999999987</v>
       </c>
       <c r="G747" s="1">
@@ -25968,7 +25968,7 @@
         <v>17494.87</v>
       </c>
       <c r="F748" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>14658.788129999999</v>
       </c>
       <c r="G748" s="1">
@@ -25979,7 +25979,7 @@
         <v>2836.0818700000004</v>
       </c>
       <c r="I748" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="749" spans="1:9" x14ac:dyDescent="0.25">
@@ -26000,7 +26000,7 @@
         <v>982.22</v>
       </c>
       <c r="F749" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>956.8175</v>
       </c>
       <c r="G749" s="1">
@@ -26029,7 +26029,7 @@
         <v>7068.61</v>
       </c>
       <c r="F750" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6690.0562999999993</v>
       </c>
       <c r="G750" s="1">
@@ -26058,7 +26058,7 @@
         <v>6832.39</v>
       </c>
       <c r="F751" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6453.8362999999999</v>
       </c>
       <c r="G751" s="1">
@@ -26074,7 +26074,7 @@
         <v>144</v>
       </c>
       <c r="B752" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C752" t="str">
         <f t="shared" si="11"/>
@@ -26087,7 +26087,7 @@
         <v>6224.56</v>
       </c>
       <c r="F752" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4868.0665000000008</v>
       </c>
       <c r="G752" s="1">
@@ -26098,7 +26098,7 @@
         <v>1356.4935</v>
       </c>
       <c r="I752" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="753" spans="1:9" x14ac:dyDescent="0.25">
@@ -26119,7 +26119,7 @@
         <v>491.11</v>
       </c>
       <c r="F753" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>478.40875</v>
       </c>
       <c r="G753" s="1">
@@ -26149,7 +26149,7 @@
         <v>2771.92</v>
       </c>
       <c r="F754" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2620.5210999999999</v>
       </c>
       <c r="G754" s="1">
@@ -26179,7 +26179,7 @@
         <v>2677.37</v>
       </c>
       <c r="F755" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2525.9710999999998</v>
       </c>
       <c r="G755" s="1">
@@ -26209,7 +26209,7 @@
         <v>51321.599999999999</v>
       </c>
       <c r="F756" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>42820.907399999996</v>
       </c>
       <c r="G756" s="1">
@@ -26239,7 +26239,7 @@
         <v>20353.580000000002</v>
       </c>
       <c r="F757" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>16096.064550000003</v>
       </c>
       <c r="G757" s="1">
@@ -26269,7 +26269,7 @@
         <v>7295.85</v>
       </c>
       <c r="F758" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5778.4740000000002</v>
       </c>
       <c r="G758" s="1">
@@ -26299,7 +26299,7 @@
         <v>3274.08</v>
       </c>
       <c r="F759" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3189.4049999999997</v>
       </c>
       <c r="G759" s="1">
@@ -26329,7 +26329,7 @@
         <v>21409.85</v>
       </c>
       <c r="F760" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>20253.866899999997</v>
       </c>
       <c r="G760" s="1">
@@ -26359,7 +26359,7 @@
         <v>20687.36</v>
       </c>
       <c r="F761" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>19531.376899999999</v>
       </c>
       <c r="G761" s="1">
@@ -26389,7 +26389,7 @@
         <v>136356.45000000001</v>
       </c>
       <c r="F762" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>111591.51888000002</v>
       </c>
       <c r="G762" s="1">
@@ -26400,7 +26400,7 @@
         <v>24764.931119999997</v>
       </c>
       <c r="I762" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="763" spans="1:9" x14ac:dyDescent="0.25">
@@ -26421,7 +26421,7 @@
         <v>29261.43</v>
       </c>
       <c r="F763" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>23093.703000000001</v>
       </c>
       <c r="G763" s="1">
@@ -26451,7 +26451,7 @@
         <v>10804.45</v>
       </c>
       <c r="F764" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>10525.022500000001</v>
       </c>
       <c r="G764" s="1">
@@ -26481,7 +26481,7 @@
         <v>51631.37</v>
       </c>
       <c r="F765" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>48533.394</v>
       </c>
       <c r="G765" s="1">
@@ -26511,7 +26511,7 @@
         <v>49916.2</v>
       </c>
       <c r="F766" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>46818.223999999995</v>
       </c>
       <c r="G766" s="1">
@@ -26541,7 +26541,7 @@
         <v>37366.69</v>
       </c>
       <c r="F767" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>30408.583970000003</v>
       </c>
       <c r="G767" s="1">
@@ -26552,7 +26552,7 @@
         <v>6958.106029999999</v>
       </c>
       <c r="I767" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="768" spans="1:9" x14ac:dyDescent="0.25">
@@ -26573,7 +26573,7 @@
         <v>7796.31</v>
       </c>
       <c r="F768" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6395.3903500000006</v>
       </c>
       <c r="G768" s="1">
@@ -26603,7 +26603,7 @@
         <v>3430.48</v>
       </c>
       <c r="F769" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2748.5640000000003</v>
       </c>
       <c r="G769" s="1">
@@ -26633,7 +26633,7 @@
         <v>2291.85</v>
       </c>
       <c r="F770" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2232.5774999999999</v>
       </c>
       <c r="G770" s="1">
@@ -26663,7 +26663,7 @@
         <v>10976.56</v>
       </c>
       <c r="F771" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>10317.788499999999</v>
       </c>
       <c r="G771" s="1">
@@ -26693,7 +26693,7 @@
         <v>10617.77</v>
       </c>
       <c r="F772" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>9958.9984999999997</v>
       </c>
       <c r="G772" s="1">
@@ -26723,7 +26723,7 @@
         <v>9102.7199999999993</v>
       </c>
       <c r="F773" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7595.0533999999989</v>
       </c>
       <c r="G773" s="1">
@@ -26753,7 +26753,7 @@
         <v>51676.53</v>
       </c>
       <c r="F774" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>41916.799180000002</v>
       </c>
       <c r="G774" s="1">
@@ -26764,7 +26764,7 @@
         <v>9759.7308199999989</v>
       </c>
       <c r="I774" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="775" spans="1:9" x14ac:dyDescent="0.25">
@@ -26785,7 +26785,7 @@
         <v>3437.78</v>
       </c>
       <c r="F775" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3348.8712500000001</v>
       </c>
       <c r="G775" s="1">
@@ -26815,7 +26815,7 @@
         <v>17994.98</v>
       </c>
       <c r="F776" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>17024.378700000001</v>
       </c>
       <c r="G776" s="1">
@@ -26845,7 +26845,7 @@
         <v>17389.689999999999</v>
       </c>
       <c r="F777" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>16419.0887</v>
       </c>
       <c r="G777" s="1">
@@ -26875,7 +26875,7 @@
         <v>6614.97</v>
       </c>
       <c r="F778" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5227.4290000000001</v>
       </c>
       <c r="G778" s="1">
@@ -26905,7 +26905,7 @@
         <v>1718.69</v>
       </c>
       <c r="F779" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1403.6990000000001</v>
       </c>
       <c r="G779" s="1">
@@ -26935,7 +26935,7 @@
         <v>1911.3</v>
       </c>
       <c r="F780" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1866.5916</v>
       </c>
       <c r="G780" s="1">
@@ -26965,7 +26965,7 @@
         <v>14107.11</v>
       </c>
       <c r="F781" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>13336.115900000001</v>
       </c>
       <c r="G781" s="1">
@@ -26995,7 +26995,7 @@
         <v>13626.37</v>
       </c>
       <c r="F782" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>12855.375900000001</v>
       </c>
       <c r="G782" s="1">
@@ -27025,7 +27025,7 @@
         <v>29018.93</v>
       </c>
       <c r="F783" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>23831.073390000001</v>
       </c>
       <c r="G783" s="1">
@@ -27036,7 +27036,7 @@
         <v>5187.8566099999998</v>
       </c>
       <c r="I783" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="784" spans="1:9" x14ac:dyDescent="0.25">
@@ -27057,7 +27057,7 @@
         <v>40592.69</v>
       </c>
       <c r="F784" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>32604.49566</v>
       </c>
       <c r="G784" s="1">
@@ -27068,7 +27068,7 @@
         <v>7988.19434</v>
       </c>
       <c r="I784" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="785" spans="1:9" x14ac:dyDescent="0.25">
@@ -27089,7 +27089,7 @@
         <v>7001.31</v>
       </c>
       <c r="F785" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5551.6740000000009</v>
       </c>
       <c r="G785" s="1">
@@ -27118,7 +27118,7 @@
         <v>3127.58</v>
       </c>
       <c r="F786" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3054.4207999999999</v>
       </c>
       <c r="G786" s="1">
@@ -27147,7 +27147,7 @@
         <v>13486.94</v>
       </c>
       <c r="F787" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>12753.767400000001</v>
       </c>
       <c r="G787" s="1">
@@ -27176,7 +27176,7 @@
         <v>13029.92</v>
       </c>
       <c r="F788" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>12296.7474</v>
       </c>
       <c r="G788" s="1">
@@ -27205,7 +27205,7 @@
         <v>49706.99</v>
       </c>
       <c r="F789" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>40201.035799999998</v>
       </c>
       <c r="G789" s="1">
@@ -27216,7 +27216,7 @@
         <v>9505.9541999999983</v>
       </c>
       <c r="I789" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="790" spans="1:9" x14ac:dyDescent="0.25">
@@ -27237,7 +27237,7 @@
         <v>2619.2600000000002</v>
       </c>
       <c r="F790" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2551.5200000000004</v>
       </c>
       <c r="G790" s="1">
@@ -27267,7 +27267,7 @@
         <v>10280.33</v>
       </c>
       <c r="F791" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>10197.3485</v>
       </c>
       <c r="G791" s="1">
@@ -27297,7 +27297,7 @@
         <v>13498.25</v>
       </c>
       <c r="F792" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>12768.577300000001</v>
       </c>
       <c r="G792" s="1">
@@ -27327,7 +27327,7 @@
         <v>13043.22</v>
       </c>
       <c r="F793" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>12230.5658</v>
       </c>
       <c r="G793" s="1">
@@ -27357,7 +27357,7 @@
         <v>67069.59</v>
       </c>
       <c r="F794" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>52911.85097</v>
       </c>
       <c r="G794" s="1">
@@ -27387,7 +27387,7 @@
         <v>3765.19</v>
       </c>
       <c r="F795" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3667.8137500000003</v>
       </c>
       <c r="G795" s="1">
@@ -27417,7 +27417,7 @@
         <v>18938.97</v>
       </c>
       <c r="F796" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>17906.499500000002</v>
       </c>
       <c r="G796" s="1">
@@ -27447,7 +27447,7 @@
         <v>18294.830000000002</v>
       </c>
       <c r="F797" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>17262.359500000002</v>
       </c>
       <c r="G797" s="1">
@@ -27477,7 +27477,7 @@
         <v>71089.539999999994</v>
       </c>
       <c r="F798" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>57805.342139999993</v>
       </c>
       <c r="G798" s="1">
@@ -27507,7 +27507,7 @@
         <v>4728.3999999999996</v>
       </c>
       <c r="F799" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3908.7459999999996</v>
       </c>
       <c r="G799" s="1">
@@ -27537,7 +27537,7 @@
         <v>3765.19</v>
       </c>
       <c r="F800" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3667.8137500000003</v>
       </c>
       <c r="G800" s="1">
@@ -27567,7 +27567,7 @@
         <v>13793.6</v>
       </c>
       <c r="F801" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>12957.236800000001</v>
       </c>
       <c r="G801" s="1">
@@ -27597,7 +27597,7 @@
         <v>13272.03</v>
       </c>
       <c r="F802" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>12435.666800000001</v>
       </c>
       <c r="G802" s="1">
@@ -27627,7 +27627,7 @@
         <v>71141.48</v>
       </c>
       <c r="F803" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>56742.180129999993</v>
       </c>
       <c r="G803" s="1">
@@ -27657,7 +27657,7 @@
         <v>13062.35</v>
       </c>
       <c r="F804" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>10233.076000000001</v>
       </c>
       <c r="G804" s="1">
@@ -27687,7 +27687,7 @@
         <v>4092.59</v>
       </c>
       <c r="F805" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3986.7462500000001</v>
       </c>
       <c r="G805" s="1">
@@ -27717,7 +27717,7 @@
         <v>8954.7099999999991</v>
       </c>
       <c r="F806" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>8414.7092999999986</v>
       </c>
       <c r="G806" s="1">
@@ -27747,7 +27747,7 @@
         <v>8616.74</v>
       </c>
       <c r="F807" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>8076.7392999999993</v>
       </c>
       <c r="G807" s="1">
@@ -27777,7 +27777,7 @@
         <v>4986.57</v>
       </c>
       <c r="F808" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3598.4644999999996</v>
       </c>
       <c r="G808" s="1">
@@ -27788,7 +27788,7 @@
         <v>1388.1055000000001</v>
       </c>
       <c r="I808" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="809" spans="1:9" x14ac:dyDescent="0.25">
@@ -27809,7 +27809,7 @@
         <v>818.52</v>
       </c>
       <c r="F809" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>797.35124999999994</v>
       </c>
       <c r="G809" s="1">
@@ -27839,7 +27839,7 @@
         <v>7920.62</v>
       </c>
       <c r="F810" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6237.03262</v>
       </c>
       <c r="G810" s="1">
@@ -27869,7 +27869,7 @@
         <v>695.02</v>
       </c>
       <c r="F811" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>678.76239999999996</v>
       </c>
       <c r="G811" s="1">
@@ -27899,7 +27899,7 @@
         <v>1705.37</v>
       </c>
       <c r="F812" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1604.5502999999999</v>
       </c>
       <c r="G812" s="1">
@@ -27929,7 +27929,7 @@
         <v>1649.68</v>
       </c>
       <c r="F813" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1548.8603000000001</v>
       </c>
       <c r="G813" s="1">
@@ -27959,7 +27959,7 @@
         <v>4092.59</v>
       </c>
       <c r="F814" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3986.7462500000001</v>
       </c>
       <c r="G814" s="1">
@@ -27989,7 +27989,7 @@
         <v>43329.47</v>
       </c>
       <c r="F815" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>33562.400679999999</v>
       </c>
       <c r="G815" s="1">
@@ -28019,7 +28019,7 @@
         <v>7279.21</v>
       </c>
       <c r="F816" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5808.74395</v>
       </c>
       <c r="G816" s="1">
@@ -28049,7 +28049,7 @@
         <v>7332.51</v>
       </c>
       <c r="F817" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6943.6824000000006</v>
       </c>
       <c r="G817" s="1">
@@ -28079,7 +28079,7 @@
         <v>7089.69</v>
       </c>
       <c r="F818" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6700.8624</v>
       </c>
       <c r="G818" s="1">
@@ -28109,7 +28109,7 @@
         <v>35519.019999999997</v>
       </c>
       <c r="F819" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>28611.323819999998</v>
       </c>
       <c r="G819" s="1">
@@ -28139,7 +28139,7 @@
         <v>4137.38</v>
       </c>
       <c r="F820" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3292.8879999999999</v>
       </c>
       <c r="G820" s="1">
@@ -28169,7 +28169,7 @@
         <v>3601.48</v>
       </c>
       <c r="F821" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3508.3375000000001</v>
       </c>
       <c r="G821" s="1">
@@ -28199,7 +28199,7 @@
         <v>7332.77</v>
       </c>
       <c r="F822" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6885.7989000000007</v>
       </c>
       <c r="G822" s="1">
@@ -28229,7 +28229,7 @@
         <v>7176.09</v>
       </c>
       <c r="F823" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6731.1511</v>
       </c>
       <c r="G823" s="1">
@@ -28259,7 +28259,7 @@
         <v>75816.399999999994</v>
       </c>
       <c r="F824" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>60054.182619999992</v>
       </c>
       <c r="G824" s="1">
@@ -28289,7 +28289,7 @@
         <v>18209.23</v>
       </c>
       <c r="F825" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>14239.101499999999</v>
       </c>
       <c r="G825" s="1">
@@ -28319,7 +28319,7 @@
         <v>5402.22</v>
       </c>
       <c r="F826" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5262.5062500000004</v>
       </c>
       <c r="G826" s="1">
@@ -28349,7 +28349,7 @@
         <v>10988.46</v>
       </c>
       <c r="F827" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>10320.543599999999</v>
       </c>
       <c r="G827" s="1">
@@ -28379,7 +28379,7 @@
         <v>10572.61</v>
       </c>
       <c r="F828" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>9904.6936000000005</v>
       </c>
       <c r="G828" s="1">
@@ -28396,7 +28396,7 @@
         <v>704</v>
       </c>
       <c r="B829" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C829" t="str">
         <f t="shared" si="12"/>
@@ -28409,7 +28409,7 @@
         <v>60906.91</v>
       </c>
       <c r="F829" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>49555.582720000006</v>
       </c>
       <c r="G829" s="1">
@@ -28439,7 +28439,7 @@
         <v>9299.68</v>
       </c>
       <c r="F830" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7814.4805000000006</v>
       </c>
       <c r="G830" s="1">
@@ -28469,7 +28469,7 @@
         <v>12354.77</v>
       </c>
       <c r="F831" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>9666.0565000000006</v>
       </c>
       <c r="G831" s="1">
@@ -28499,7 +28499,7 @@
         <v>3601.48</v>
       </c>
       <c r="F832" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3508.3375000000001</v>
       </c>
       <c r="G832" s="1">
@@ -28529,7 +28529,7 @@
         <v>8865.11</v>
       </c>
       <c r="F833" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>8328.2705000000005</v>
       </c>
       <c r="G833" s="1">
@@ -28559,7 +28559,7 @@
         <v>8530.0300000000007</v>
       </c>
       <c r="F834" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7993.1905000000006</v>
       </c>
       <c r="G834" s="1">
@@ -28589,7 +28589,7 @@
         <v>99943.81</v>
       </c>
       <c r="F835" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>78077.98152999999</v>
       </c>
       <c r="G835" s="1">
@@ -28619,7 +28619,7 @@
         <v>18978.53</v>
       </c>
       <c r="F836" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>14853.163999999999</v>
       </c>
       <c r="G836" s="1">
@@ -28649,7 +28649,7 @@
         <v>4911.1099999999997</v>
       </c>
       <c r="F837" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4784.0974999999999</v>
       </c>
       <c r="G837" s="1">
@@ -28679,7 +28679,7 @@
         <v>7380.97</v>
       </c>
       <c r="F838" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6933.5473000000002</v>
       </c>
       <c r="G838" s="1">
@@ -28709,7 +28709,7 @@
         <v>7101.91</v>
       </c>
       <c r="F839" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6654.4872999999998</v>
       </c>
       <c r="G839" s="1">
@@ -28739,7 +28739,7 @@
         <v>26891.200000000001</v>
       </c>
       <c r="F840" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>22431.480650000001</v>
       </c>
       <c r="G840" s="1">
@@ -28769,7 +28769,7 @@
         <v>20737.57</v>
       </c>
       <c r="F841" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>17294.063549999999</v>
       </c>
       <c r="G841" s="1">
@@ -28799,7 +28799,7 @@
         <v>21813.89</v>
       </c>
       <c r="F842" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>17955.984099999998</v>
       </c>
       <c r="G842" s="1">
@@ -28829,7 +28829,7 @@
         <v>3447.32</v>
       </c>
       <c r="F843" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2679.4871000000003</v>
       </c>
       <c r="G843" s="1">
@@ -28859,7 +28859,7 @@
         <v>1437.78</v>
       </c>
       <c r="F844" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1231.9632999999999</v>
       </c>
       <c r="G844" s="1">
@@ -28889,7 +28889,7 @@
         <v>3941.23</v>
       </c>
       <c r="F845" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3114.8020000000001</v>
       </c>
       <c r="G845" s="1">
@@ -28919,7 +28919,7 @@
         <v>10506.97</v>
       </c>
       <c r="F846" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>8020.2345999999998</v>
       </c>
       <c r="G846" s="1">
@@ -28930,7 +28930,7 @@
         <v>2486.7354</v>
       </c>
       <c r="I846" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="847" spans="1:9" x14ac:dyDescent="0.25">
@@ -28951,7 +28951,7 @@
         <v>982.22</v>
       </c>
       <c r="F847" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>956.8175</v>
       </c>
       <c r="G847" s="1">
@@ -28980,7 +28980,7 @@
         <v>4143.5600000000004</v>
       </c>
       <c r="F848" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3895.6316000000006</v>
       </c>
       <c r="G848" s="1">
@@ -29009,7 +29009,7 @@
         <v>4001.58</v>
       </c>
       <c r="F849" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3753.6516000000001</v>
       </c>
       <c r="G849" s="1">
@@ -29038,7 +29038,7 @@
         <v>14679.22</v>
       </c>
       <c r="F850" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>11260.687029999999</v>
       </c>
       <c r="G850" s="1">
@@ -29049,7 +29049,7 @@
         <v>3418.5329700000002</v>
       </c>
       <c r="I850" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="851" spans="1:9" x14ac:dyDescent="0.25">
@@ -29070,7 +29070,7 @@
         <v>4680.68</v>
       </c>
       <c r="F851" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3780.0767000000001</v>
       </c>
       <c r="G851" s="1">
@@ -29099,7 +29099,7 @@
         <v>1530.51</v>
       </c>
       <c r="F852" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1307.0808999999999</v>
       </c>
       <c r="G852" s="1">
@@ -29128,7 +29128,7 @@
         <v>5731.03</v>
       </c>
       <c r="F853" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4478.9690000000001</v>
       </c>
       <c r="G853" s="1">
@@ -29157,7 +29157,7 @@
         <v>1473.33</v>
       </c>
       <c r="F854" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1435.2262499999999</v>
       </c>
       <c r="G854" s="1">
@@ -29186,7 +29186,7 @@
         <v>5938.4</v>
       </c>
       <c r="F855" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5584.5713999999998</v>
       </c>
       <c r="G855" s="1">
@@ -29215,7 +29215,7 @@
         <v>5738.42</v>
       </c>
       <c r="F856" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5384.5914000000002</v>
       </c>
       <c r="G856" s="1">
@@ -29244,7 +29244,7 @@
         <v>7095.85</v>
       </c>
       <c r="F857" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5770.0088500000002</v>
       </c>
       <c r="G857" s="1">
@@ -29273,7 +29273,7 @@
         <v>1530.51</v>
       </c>
       <c r="F858" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1307.0808999999999</v>
       </c>
       <c r="G858" s="1">
@@ -29302,7 +29302,7 @@
         <v>8164.51</v>
       </c>
       <c r="F859" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6389.1575000000003</v>
       </c>
       <c r="G859" s="1">
@@ -29331,7 +29331,7 @@
         <v>20053.490000000002</v>
       </c>
       <c r="F860" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>15357.098380000003</v>
       </c>
       <c r="G860" s="1">
@@ -29342,7 +29342,7 @@
         <v>4696.3916199999994</v>
       </c>
       <c r="I860" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="861" spans="1:9" x14ac:dyDescent="0.25">
@@ -29363,7 +29363,7 @@
         <v>2128.15</v>
       </c>
       <c r="F861" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2073.1112499999999</v>
       </c>
       <c r="G861" s="1">
@@ -29393,7 +29393,7 @@
         <v>6974.89</v>
       </c>
       <c r="F862" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6557.4987000000001</v>
       </c>
       <c r="G862" s="1">
@@ -29423,7 +29423,7 @@
         <v>6740.64</v>
       </c>
       <c r="F863" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6323.2487000000001</v>
       </c>
       <c r="G863" s="1">
@@ -29453,7 +29453,7 @@
         <v>67868.06</v>
       </c>
       <c r="F864" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>54336.780489999997</v>
       </c>
       <c r="G864" s="1">
@@ -29483,7 +29483,7 @@
         <v>11149.13</v>
       </c>
       <c r="F865" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>8774.8429999999989</v>
       </c>
       <c r="G865" s="1">
@@ -29513,7 +29513,7 @@
         <v>3765.19</v>
       </c>
       <c r="F866" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3667.8137500000003</v>
       </c>
       <c r="G866" s="1">
@@ -29543,7 +29543,7 @@
         <v>11922.97</v>
       </c>
       <c r="F867" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>11204.135699999999</v>
       </c>
       <c r="G867" s="1">
@@ -29573,7 +29573,7 @@
         <v>11472.98</v>
       </c>
       <c r="F868" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>10754.145699999999</v>
       </c>
       <c r="G868" s="1">
@@ -29603,7 +29603,7 @@
         <v>78315.960000000006</v>
       </c>
       <c r="F869" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>62765.746240000008</v>
       </c>
       <c r="G869" s="1">
@@ -29633,7 +29633,7 @@
         <v>13460.34</v>
       </c>
       <c r="F870" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>10554.8585</v>
       </c>
       <c r="G870" s="1">
@@ -29663,7 +29663,7 @@
         <v>4583.71</v>
       </c>
       <c r="F871" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4465.165</v>
       </c>
       <c r="G871" s="1">
@@ -29693,7 +29693,7 @@
         <v>14778.07</v>
       </c>
       <c r="F872" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>13887.288999999999</v>
       </c>
       <c r="G872" s="1">
@@ -29723,7 +29723,7 @@
         <v>14220.37</v>
       </c>
       <c r="F873" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>13329.589</v>
       </c>
       <c r="G873" s="1">
@@ -29753,7 +29753,7 @@
         <v>14323.22</v>
       </c>
       <c r="F874" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>11249.517499999998</v>
       </c>
       <c r="G874" s="1">
@@ -29783,7 +29783,7 @@
         <v>10514.12</v>
       </c>
       <c r="F875" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>8366.1410500000002</v>
       </c>
       <c r="G875" s="1">
@@ -29813,7 +29813,7 @@
         <v>2421.39</v>
       </c>
       <c r="F876" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1959.0080499999999</v>
       </c>
       <c r="G876" s="1">
@@ -29843,7 +29843,7 @@
         <v>3636.98</v>
       </c>
       <c r="F877" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2827.4870000000001</v>
       </c>
       <c r="G877" s="1">
@@ -29873,7 +29873,7 @@
         <v>863.97</v>
       </c>
       <c r="F878" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>835.51920000000007</v>
       </c>
       <c r="G878" s="1">
@@ -29903,7 +29903,7 @@
         <v>2741.95</v>
       </c>
       <c r="F879" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2576.8901999999998</v>
       </c>
       <c r="G879" s="1">
@@ -29933,7 +29933,7 @@
         <v>2638.52</v>
       </c>
       <c r="F880" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2473.4602</v>
       </c>
       <c r="G880" s="1">
@@ -29963,7 +29963,7 @@
         <v>9227.77</v>
       </c>
       <c r="F881" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7532.3507000000009</v>
       </c>
       <c r="G881" s="1">
@@ -29974,7 +29974,7 @@
         <v>1695.4193</v>
       </c>
       <c r="I881" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="882" spans="1:9" x14ac:dyDescent="0.25">
@@ -29995,7 +29995,7 @@
         <v>2242.4299999999998</v>
       </c>
       <c r="F882" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1738.7830999999999</v>
       </c>
       <c r="G882" s="1">
@@ -30024,7 +30024,7 @@
         <v>733.13</v>
       </c>
       <c r="F883" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>634.28604999999993</v>
       </c>
       <c r="G883" s="1">
@@ -30053,7 +30053,7 @@
         <v>3110.22</v>
       </c>
       <c r="F884" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2453.7064999999998</v>
       </c>
       <c r="G884" s="1">
@@ -30082,7 +30082,7 @@
         <v>818.52</v>
       </c>
       <c r="F885" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>797.35124999999994</v>
       </c>
       <c r="G885" s="1">
@@ -30111,7 +30111,7 @@
         <v>3150.69</v>
       </c>
       <c r="F886" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2975.5821000000001</v>
       </c>
       <c r="G886" s="1">
@@ -30140,7 +30140,7 @@
         <v>3117.38</v>
       </c>
       <c r="F887" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2941.9333999999999</v>
       </c>
       <c r="G887" s="1">
@@ -30169,7 +30169,7 @@
         <v>11307.99</v>
       </c>
       <c r="F888" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>8881.4190099999996</v>
       </c>
       <c r="G888" s="1">
@@ -30180,7 +30180,7 @@
         <v>2426.5709899999997</v>
       </c>
       <c r="I888" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="889" spans="1:9" x14ac:dyDescent="0.25">
@@ -30201,7 +30201,7 @@
         <v>3114.8</v>
       </c>
       <c r="F889" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2489.2775500000002</v>
       </c>
       <c r="G889" s="1">
@@ -30230,7 +30230,7 @@
         <v>2192.67</v>
       </c>
       <c r="F890" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1857.0183000000002</v>
       </c>
       <c r="G890" s="1">
@@ -30259,7 +30259,7 @@
         <v>4190.26</v>
       </c>
       <c r="F891" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3276.8990000000003</v>
       </c>
       <c r="G891" s="1">
@@ -30288,7 +30288,7 @@
         <v>982.22</v>
       </c>
       <c r="F892" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>956.8175</v>
       </c>
       <c r="G892" s="1">
@@ -30317,7 +30317,7 @@
         <v>3702.12</v>
       </c>
       <c r="F893" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3505.8997999999997</v>
       </c>
       <c r="G893" s="1">
@@ -30346,7 +30346,7 @@
         <v>3579.89</v>
       </c>
       <c r="F894" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3383.6697999999997</v>
       </c>
       <c r="G894" s="1">
@@ -30375,7 +30375,7 @@
         <v>15625.37</v>
       </c>
       <c r="F895" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>12484.88715</v>
       </c>
       <c r="G895" s="1">
@@ -30386,7 +30386,7 @@
         <v>3140.4828499999999</v>
       </c>
       <c r="I895" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="896" spans="1:9" x14ac:dyDescent="0.25">
@@ -30407,7 +30407,7 @@
         <v>1473.33</v>
       </c>
       <c r="F896" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1435.2262499999999</v>
       </c>
       <c r="G896" s="1">
@@ -30437,7 +30437,7 @@
         <v>2254.2600000000002</v>
       </c>
       <c r="F897" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2137.1827000000003</v>
       </c>
       <c r="G897" s="1">
@@ -30467,7 +30467,7 @@
         <v>2181.4299999999998</v>
       </c>
       <c r="F898" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2064.3526999999999</v>
       </c>
       <c r="G898" s="1">
@@ -30484,7 +30484,7 @@
         <v>237</v>
       </c>
       <c r="B899" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C899" t="str">
         <f t="shared" si="14"/>
@@ -30497,7 +30497,7 @@
         <v>15825.32</v>
       </c>
       <c r="F899" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>12456.77915</v>
       </c>
       <c r="G899" s="1">
@@ -30508,7 +30508,7 @@
         <v>3368.5408499999999</v>
       </c>
       <c r="I899" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="900" spans="1:9" x14ac:dyDescent="0.25">
@@ -30529,7 +30529,7 @@
         <v>2739.51</v>
       </c>
       <c r="F900" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2120.4228500000004</v>
       </c>
       <c r="G900" s="1">
@@ -30558,7 +30558,7 @@
         <v>3570.93</v>
       </c>
       <c r="F901" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2832.5639999999999</v>
       </c>
       <c r="G901" s="1">
@@ -30587,7 +30587,7 @@
         <v>1309.6300000000001</v>
       </c>
       <c r="F902" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1275.7600000000002</v>
       </c>
       <c r="G902" s="1">
@@ -30616,7 +30616,7 @@
         <v>4615.49</v>
       </c>
       <c r="F903" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4336.8527999999997</v>
       </c>
       <c r="G903" s="1">
@@ -30645,7 +30645,7 @@
         <v>4441.22</v>
       </c>
       <c r="F904" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4162.5828000000001</v>
       </c>
       <c r="G904" s="1">
@@ -30661,7 +30661,7 @@
         <v>443</v>
       </c>
       <c r="B905" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C905" t="str">
         <f t="shared" si="14"/>
@@ -30674,7 +30674,7 @@
         <v>7365.63</v>
       </c>
       <c r="F905" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5845.7701999999999</v>
       </c>
       <c r="G905" s="1">
@@ -30685,7 +30685,7 @@
         <v>1519.8598000000002</v>
       </c>
       <c r="I905" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="906" spans="1:9" x14ac:dyDescent="0.25">
@@ -30706,7 +30706,7 @@
         <v>870.91</v>
       </c>
       <c r="F906" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>815.81479999999999</v>
       </c>
       <c r="G906" s="1">
@@ -30736,7 +30736,7 @@
         <v>2585.62</v>
       </c>
       <c r="F907" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2053.8609999999999</v>
       </c>
       <c r="G907" s="1">
@@ -30766,7 +30766,7 @@
         <v>654.82000000000005</v>
       </c>
       <c r="F908" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>637.8850000000001</v>
       </c>
       <c r="G908" s="1">
@@ -30796,7 +30796,7 @@
         <v>905.17</v>
       </c>
       <c r="F909" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>850.07479999999998</v>
       </c>
       <c r="G909" s="1">
@@ -30826,7 +30826,7 @@
         <v>3258.01</v>
       </c>
       <c r="F910" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2649.4790000000003</v>
       </c>
       <c r="G910" s="1">
@@ -30856,7 +30856,7 @@
         <v>18645.93</v>
       </c>
       <c r="F911" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>14916.3914</v>
       </c>
       <c r="G911" s="1">
@@ -30886,7 +30886,7 @@
         <v>1800.74</v>
       </c>
       <c r="F912" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>1754.16875</v>
       </c>
       <c r="G912" s="1">
@@ -30916,7 +30916,7 @@
         <v>3429.5</v>
       </c>
       <c r="F913" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3223.2316999999998</v>
       </c>
       <c r="G913" s="1">
@@ -30946,7 +30946,7 @@
         <v>3313.82</v>
       </c>
       <c r="F914" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3107.5517</v>
       </c>
       <c r="G914" s="1">
@@ -30976,7 +30976,7 @@
         <v>4447.57</v>
       </c>
       <c r="F915" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3819.0105399999998</v>
       </c>
       <c r="G915" s="1">
@@ -31006,7 +31006,7 @@
         <v>982.22</v>
       </c>
       <c r="F916" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>956.8175</v>
       </c>
       <c r="G916" s="1">
@@ -31036,7 +31036,7 @@
         <v>17347.21</v>
       </c>
       <c r="F917" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>13718.524969999999</v>
       </c>
       <c r="G917" s="1">
@@ -31066,7 +31066,7 @@
         <v>2588.0100000000002</v>
       </c>
       <c r="F918" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2011.0345500000003</v>
       </c>
       <c r="G918" s="1">
@@ -31096,7 +31096,7 @@
         <v>3326.23</v>
       </c>
       <c r="F919" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2618.3469999999998</v>
       </c>
       <c r="G919" s="1">
@@ -31126,7 +31126,7 @@
         <v>3081.39</v>
       </c>
       <c r="F920" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2895.6695</v>
       </c>
       <c r="G920" s="1">
@@ -31156,7 +31156,7 @@
         <v>2965.11</v>
       </c>
       <c r="F921" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2779.3895000000002</v>
       </c>
       <c r="G921" s="1">
@@ -31173,7 +31173,7 @@
         <v>258</v>
       </c>
       <c r="B922" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C922" t="str">
         <f t="shared" si="14"/>
@@ -31186,7 +31186,7 @@
         <v>63172.65</v>
       </c>
       <c r="F922" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>50346.814850000002</v>
       </c>
       <c r="G922" s="1">
@@ -31216,7 +31216,7 @@
         <v>11693.76</v>
       </c>
       <c r="F923" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>9328.505000000001</v>
       </c>
       <c r="G923" s="1">
@@ -31246,7 +31246,7 @@
         <v>2291.85</v>
       </c>
       <c r="F924" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2232.5774999999999</v>
       </c>
       <c r="G924" s="1">
@@ -31276,7 +31276,7 @@
         <v>7420.62</v>
       </c>
       <c r="F925" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6973.5360000000001</v>
       </c>
       <c r="G925" s="1">
@@ -31306,7 +31306,7 @@
         <v>7140.62</v>
       </c>
       <c r="F926" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6693.5360000000001</v>
       </c>
       <c r="G926" s="1">
@@ -31336,7 +31336,7 @@
         <v>43905.48</v>
       </c>
       <c r="F927" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>34303.233390000001</v>
       </c>
       <c r="G927" s="1">
@@ -31366,7 +31366,7 @@
         <v>5674.88</v>
       </c>
       <c r="F928" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5625.2039999999997</v>
       </c>
       <c r="G928" s="1">
@@ -31396,7 +31396,7 @@
         <v>7378.18</v>
       </c>
       <c r="F929" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6936.2894000000006</v>
       </c>
       <c r="G929" s="1">
@@ -31426,7 +31426,7 @@
         <v>7133.06</v>
       </c>
       <c r="F930" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>6691.1694000000007</v>
       </c>
       <c r="G930" s="1">
@@ -31456,7 +31456,7 @@
         <v>0</v>
       </c>
       <c r="F931" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>0</v>
       </c>
       <c r="G931" s="1">
@@ -31486,7 +31486,7 @@
         <v>22525.7</v>
       </c>
       <c r="F932" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>17807.891250000001</v>
       </c>
       <c r="G932" s="1">
@@ -31516,7 +31516,7 @@
         <v>45559.88</v>
       </c>
       <c r="F933" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>34300.622669999997</v>
       </c>
       <c r="G933" s="1">
@@ -31546,7 +31546,7 @@
         <v>36862.25</v>
       </c>
       <c r="F934" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>27241.318440000003</v>
       </c>
       <c r="G934" s="1">
@@ -31576,7 +31576,7 @@
         <v>57625.42</v>
       </c>
       <c r="F935" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>43520.981059999998</v>
       </c>
       <c r="G935" s="1">
@@ -31606,7 +31606,7 @@
         <v>13703.66</v>
       </c>
       <c r="F936" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>9594.664499999999</v>
       </c>
       <c r="G936" s="1">
@@ -31636,7 +31636,7 @@
         <v>24372.99</v>
       </c>
       <c r="F937" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>18117.934850000001</v>
       </c>
       <c r="G937" s="1">
@@ -31666,7 +31666,7 @@
         <v>20878.12</v>
       </c>
       <c r="F938" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>15668.913999999999</v>
       </c>
       <c r="G938" s="1">
@@ -31696,7 +31696,7 @@
         <v>20458.990000000002</v>
       </c>
       <c r="F939" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>15224.8331</v>
       </c>
       <c r="G939" s="1">
@@ -31726,7 +31726,7 @@
         <v>28778.86</v>
       </c>
       <c r="F940" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>21488.398950000003</v>
       </c>
       <c r="G940" s="1">
@@ -31756,7 +31756,7 @@
         <v>7341.38</v>
       </c>
       <c r="F941" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>5508.3356000000003</v>
       </c>
       <c r="G941" s="1">
@@ -31782,7 +31782,7 @@
         <v>13962.43</v>
       </c>
       <c r="F942" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>10522.76215</v>
       </c>
       <c r="G942" s="1">
@@ -31808,7 +31808,7 @@
         <v>13021.95</v>
       </c>
       <c r="F943" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>10286.89105</v>
       </c>
       <c r="G943" s="1">
@@ -31834,7 +31834,7 @@
         <v>41670.29</v>
       </c>
       <c r="F944" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>32171.109800000002</v>
       </c>
       <c r="G944" s="1">
@@ -31860,7 +31860,7 @@
         <v>460</v>
       </c>
       <c r="F945" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>460</v>
       </c>
       <c r="G945" s="1">
@@ -31886,7 +31886,7 @@
         <v>575</v>
       </c>
       <c r="F946" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>575</v>
       </c>
       <c r="G946" s="1">
@@ -31912,7 +31912,7 @@
         <v>7000</v>
       </c>
       <c r="F947" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>7000</v>
       </c>
       <c r="G947" s="1">
@@ -31938,7 +31938,7 @@
         <v>9757.7000000000007</v>
       </c>
       <c r="F948" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>9437.9897799999999</v>
       </c>
       <c r="G948" s="1">
@@ -31964,7 +31964,7 @@
         <v>4339.68</v>
       </c>
       <c r="F949" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4225.6735800000006</v>
       </c>
       <c r="G949" s="1">
@@ -31990,7 +31990,7 @@
         <v>3751.99</v>
       </c>
       <c r="F950" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3599.1346899999999</v>
       </c>
       <c r="G950" s="1">
@@ -32016,7 +32016,7 @@
         <v>5101.33</v>
       </c>
       <c r="F951" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4863.9464600000001</v>
       </c>
       <c r="G951" s="1">
@@ -32042,7 +32042,7 @@
         <v>3727.08</v>
       </c>
       <c r="F952" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>3574.3827499999998</v>
       </c>
       <c r="G952" s="1">
@@ -32068,7 +32068,7 @@
         <v>2444.06</v>
       </c>
       <c r="F953" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>2295.3932799999998</v>
       </c>
       <c r="G953" s="1">
@@ -32094,7 +32094,7 @@
         <v>4463.6099999999997</v>
       </c>
       <c r="F954" s="1">
-        <f>Tabela1[[#This Row],[PR.CUSTO+FRETE]]-Tabela1[[#This Row],[FRETE]]</f>
+        <f>Tabela1[[#This Row],[PRECO_CUSTO]]-Tabela1[[#This Row],[FRETE]]</f>
         <v>4288.7956399999994</v>
       </c>
       <c r="G954" s="1">
